--- a/single_cell/output/stress_flux_mean.xlsx
+++ b/single_cell/output/stress_flux_mean.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="944">
-  <si>
-    <t>r_0003</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="808">
   <si>
     <t>r_0005</t>
   </si>
@@ -190,24 +187,12 @@
     <t>r_0165</t>
   </si>
   <si>
-    <t>r_0166</t>
-  </si>
-  <si>
     <t>r_0172</t>
   </si>
   <si>
     <t>r_0173</t>
   </si>
   <si>
-    <t>r_0179</t>
-  </si>
-  <si>
-    <t>r_0182</t>
-  </si>
-  <si>
-    <t>r_0186</t>
-  </si>
-  <si>
     <t>r_0188</t>
   </si>
   <si>
@@ -295,9 +280,6 @@
     <t>r_0255</t>
   </si>
   <si>
-    <t>r_0256</t>
-  </si>
-  <si>
     <t>r_0278</t>
   </si>
   <si>
@@ -505,12 +487,12 @@
     <t>r_0531</t>
   </si>
   <si>
-    <t>r_0533</t>
-  </si>
-  <si>
     <t>r_0534</t>
   </si>
   <si>
+    <t>r_0535</t>
+  </si>
+  <si>
     <t>r_0536</t>
   </si>
   <si>
@@ -541,9 +523,6 @@
     <t>r_0552</t>
   </si>
   <si>
-    <t>r_0556</t>
-  </si>
-  <si>
     <t>r_0557</t>
   </si>
   <si>
@@ -601,9 +580,6 @@
     <t>r_0671</t>
   </si>
   <si>
-    <t>r_0674</t>
-  </si>
-  <si>
     <t>r_0678</t>
   </si>
   <si>
@@ -865,9 +841,6 @@
     <t>r_0959</t>
   </si>
   <si>
-    <t>r_0960</t>
-  </si>
-  <si>
     <t>r_0961</t>
   </si>
   <si>
@@ -1003,9 +976,6 @@
     <t>r_1089</t>
   </si>
   <si>
-    <t>r_1097</t>
-  </si>
-  <si>
     <t>r_1099</t>
   </si>
   <si>
@@ -1036,6 +1006,9 @@
     <t>r_1138</t>
   </si>
   <si>
+    <t>r_1139</t>
+  </si>
+  <si>
     <t>r_1166</t>
   </si>
   <si>
@@ -1069,15 +1042,9 @@
     <t>r_1266</t>
   </si>
   <si>
-    <t>r_1270</t>
-  </si>
-  <si>
     <t>r_1277</t>
   </si>
   <si>
-    <t>r_1549</t>
-  </si>
-  <si>
     <t>r_1567</t>
   </si>
   <si>
@@ -1087,33 +1054,12 @@
     <t>r_1574</t>
   </si>
   <si>
-    <t>r_1575</t>
-  </si>
-  <si>
-    <t>r_1577</t>
-  </si>
-  <si>
-    <t>r_1578</t>
-  </si>
-  <si>
-    <t>r_1580</t>
-  </si>
-  <si>
-    <t>r_1582</t>
-  </si>
-  <si>
     <t>r_1585</t>
   </si>
   <si>
     <t>r_1596</t>
   </si>
   <si>
-    <t>r_1598</t>
-  </si>
-  <si>
-    <t>r_1599</t>
-  </si>
-  <si>
     <t>r_1603</t>
   </si>
   <si>
@@ -1123,9 +1069,15 @@
     <t>r_1622</t>
   </si>
   <si>
+    <t>r_1631</t>
+  </si>
+  <si>
     <t>r_1632</t>
   </si>
   <si>
+    <t>r_1633</t>
+  </si>
+  <si>
     <t>r_1654</t>
   </si>
   <si>
@@ -1171,6 +1123,9 @@
     <t>r_1714</t>
   </si>
   <si>
+    <t>r_1715</t>
+  </si>
+  <si>
     <t>r_1729</t>
   </si>
   <si>
@@ -1231,9 +1186,6 @@
     <t>r_1825</t>
   </si>
   <si>
-    <t>r_1827</t>
-  </si>
-  <si>
     <t>r_1829</t>
   </si>
   <si>
@@ -1249,33 +1201,9 @@
     <t>r_1840</t>
   </si>
   <si>
-    <t>r_1843</t>
-  </si>
-  <si>
-    <t>r_1845</t>
-  </si>
-  <si>
     <t>r_1861</t>
   </si>
   <si>
-    <t>r_1863</t>
-  </si>
-  <si>
-    <t>r_1865</t>
-  </si>
-  <si>
-    <t>r_1866</t>
-  </si>
-  <si>
-    <t>r_1868</t>
-  </si>
-  <si>
-    <t>r_1870</t>
-  </si>
-  <si>
-    <t>r_1874</t>
-  </si>
-  <si>
     <t>r_1887</t>
   </si>
   <si>
@@ -1351,15 +1279,6 @@
     <t>r_2060</t>
   </si>
   <si>
-    <t>r_2064</t>
-  </si>
-  <si>
-    <t>r_2065</t>
-  </si>
-  <si>
-    <t>r_2067</t>
-  </si>
-  <si>
     <t>r_2069</t>
   </si>
   <si>
@@ -1369,12 +1288,6 @@
     <t>r_2071</t>
   </si>
   <si>
-    <t>r_2083</t>
-  </si>
-  <si>
-    <t>r_2084</t>
-  </si>
-  <si>
     <t>r_2093</t>
   </si>
   <si>
@@ -1402,9 +1315,6 @@
     <t>r_2114</t>
   </si>
   <si>
-    <t>r_2116</t>
-  </si>
-  <si>
     <t>r_2117</t>
   </si>
   <si>
@@ -1414,9 +1324,6 @@
     <t>r_2125</t>
   </si>
   <si>
-    <t>r_2126</t>
-  </si>
-  <si>
     <t>r_2131</t>
   </si>
   <si>
@@ -1435,42 +1342,18 @@
     <t>r_2183</t>
   </si>
   <si>
-    <t>r_2187</t>
-  </si>
-  <si>
-    <t>r_2190</t>
-  </si>
-  <si>
-    <t>r_2194</t>
+    <t>r_2195</t>
   </si>
   <si>
     <t>r_2197</t>
   </si>
   <si>
-    <t>r_2198</t>
-  </si>
-  <si>
-    <t>r_2199</t>
-  </si>
-  <si>
-    <t>r_2200</t>
-  </si>
-  <si>
-    <t>r_2202</t>
-  </si>
-  <si>
-    <t>r_2204</t>
+    <t>r_2201</t>
   </si>
   <si>
     <t>r_2205</t>
   </si>
   <si>
-    <t>r_2229</t>
-  </si>
-  <si>
-    <t>r_2232</t>
-  </si>
-  <si>
     <t>r_2236</t>
   </si>
   <si>
@@ -1507,6 +1390,9 @@
     <t>r_2316</t>
   </si>
   <si>
+    <t>r_2317</t>
+  </si>
+  <si>
     <t>r_2318</t>
   </si>
   <si>
@@ -1540,22 +1426,19 @@
     <t>r_2340</t>
   </si>
   <si>
+    <t>r_2341</t>
+  </si>
+  <si>
     <t>r_2342</t>
   </si>
   <si>
-    <t>r_2344</t>
-  </si>
-  <si>
     <t>r_2346</t>
   </si>
   <si>
     <t>r_2348</t>
   </si>
   <si>
-    <t>r_2349</t>
-  </si>
-  <si>
-    <t>r_2360</t>
+    <t>r_2350</t>
   </si>
   <si>
     <t>r_2362</t>
@@ -1564,24 +1447,12 @@
     <t>r_2364</t>
   </si>
   <si>
-    <t>r_2370</t>
-  </si>
-  <si>
     <t>r_2376</t>
   </si>
   <si>
-    <t>r_2377</t>
-  </si>
-  <si>
     <t>r_2378</t>
   </si>
   <si>
-    <t>r_2380</t>
-  </si>
-  <si>
-    <t>r_2383</t>
-  </si>
-  <si>
     <t>r_2386</t>
   </si>
   <si>
@@ -1591,25 +1462,25 @@
     <t>r_2392</t>
   </si>
   <si>
-    <t>r_2393</t>
-  </si>
-  <si>
     <t>r_2394</t>
   </si>
   <si>
-    <t>r_2396</t>
-  </si>
-  <si>
     <t>r_2397</t>
   </si>
   <si>
     <t>r_2398</t>
   </si>
   <si>
-    <t>r_2399</t>
-  </si>
-  <si>
-    <t>r_2410</t>
+    <t>r_2401</t>
+  </si>
+  <si>
+    <t>r_2402</t>
+  </si>
+  <si>
+    <t>r_2404</t>
+  </si>
+  <si>
+    <t>r_2411</t>
   </si>
   <si>
     <t>r_2418</t>
@@ -1624,9 +1495,6 @@
     <t>r_2434</t>
   </si>
   <si>
-    <t>r_2435</t>
-  </si>
-  <si>
     <t>r_2436</t>
   </si>
   <si>
@@ -1654,9 +1522,6 @@
     <t>r_2452</t>
   </si>
   <si>
-    <t>r_2453</t>
-  </si>
-  <si>
     <t>r_2454</t>
   </si>
   <si>
@@ -1666,15 +1531,6 @@
     <t>r_2456</t>
   </si>
   <si>
-    <t>r_2457</t>
-  </si>
-  <si>
-    <t>r_2460</t>
-  </si>
-  <si>
-    <t>r_2461</t>
-  </si>
-  <si>
     <t>r_2464</t>
   </si>
   <si>
@@ -1693,9 +1549,6 @@
     <t>r_2470</t>
   </si>
   <si>
-    <t>r_2471</t>
-  </si>
-  <si>
     <t>r_2472</t>
   </si>
   <si>
@@ -1783,99 +1636,24 @@
     <t>r_2510</t>
   </si>
   <si>
-    <t>r_2532</t>
-  </si>
-  <si>
-    <t>r_2535</t>
-  </si>
-  <si>
-    <t>r_2549</t>
-  </si>
-  <si>
-    <t>r_2550</t>
-  </si>
-  <si>
-    <t>r_2551</t>
-  </si>
-  <si>
-    <t>r_2556</t>
-  </si>
-  <si>
-    <t>r_2558</t>
-  </si>
-  <si>
-    <t>r_2560</t>
-  </si>
-  <si>
-    <t>r_2564</t>
-  </si>
-  <si>
-    <t>r_2566</t>
-  </si>
-  <si>
-    <t>r_2567</t>
-  </si>
-  <si>
-    <t>r_2580</t>
-  </si>
-  <si>
-    <t>r_2581</t>
-  </si>
-  <si>
-    <t>r_2585</t>
-  </si>
-  <si>
-    <t>r_2586</t>
-  </si>
-  <si>
-    <t>r_2603</t>
-  </si>
-  <si>
-    <t>r_2618</t>
-  </si>
-  <si>
-    <t>r_2623</t>
-  </si>
-  <si>
-    <t>r_2624</t>
-  </si>
-  <si>
-    <t>r_2628</t>
-  </si>
-  <si>
-    <t>r_2631</t>
-  </si>
-  <si>
-    <t>r_2634</t>
-  </si>
-  <si>
-    <t>r_2639</t>
-  </si>
-  <si>
-    <t>r_2722</t>
-  </si>
-  <si>
-    <t>r_2800</t>
-  </si>
-  <si>
-    <t>r_2813</t>
-  </si>
-  <si>
-    <t>r_2816</t>
-  </si>
-  <si>
-    <t>r_2817</t>
-  </si>
-  <si>
-    <t>r_2819</t>
-  </si>
-  <si>
-    <t>r_2884</t>
+    <t>r_2814</t>
+  </si>
+  <si>
+    <t>r_2815</t>
   </si>
   <si>
     <t>r_2886</t>
   </si>
   <si>
+    <t>r_2888</t>
+  </si>
+  <si>
+    <t>r_2889</t>
+  </si>
+  <si>
+    <t>r_2890</t>
+  </si>
+  <si>
     <t>r_2892</t>
   </si>
   <si>
@@ -1888,132 +1666,111 @@
     <t>r_2896</t>
   </si>
   <si>
-    <t>r_2897</t>
+    <t>r_2898</t>
+  </si>
+  <si>
+    <t>r_2899</t>
   </si>
   <si>
     <t>r_2900</t>
   </si>
   <si>
+    <t>r_2903</t>
+  </si>
+  <si>
     <t>r_2904</t>
   </si>
   <si>
-    <t>r_2907</t>
+    <t>r_2908</t>
+  </si>
+  <si>
+    <t>r_2910</t>
   </si>
   <si>
     <t>r_2912</t>
   </si>
   <si>
-    <t>r_2920</t>
-  </si>
-  <si>
-    <t>r_2922</t>
+    <t>r_2914</t>
+  </si>
+  <si>
+    <t>r_2916</t>
+  </si>
+  <si>
+    <t>r_2919</t>
+  </si>
+  <si>
+    <t>r_2921</t>
+  </si>
+  <si>
+    <t>r_2923</t>
+  </si>
+  <si>
+    <t>r_2937</t>
+  </si>
+  <si>
+    <t>r_2938</t>
   </si>
   <si>
     <t>r_2942</t>
   </si>
   <si>
+    <t>r_2944</t>
+  </si>
+  <si>
     <t>r_2946</t>
   </si>
   <si>
     <t>r_2952</t>
   </si>
   <si>
-    <t>r_2953</t>
-  </si>
-  <si>
     <t>r_2956</t>
   </si>
   <si>
     <t>r_2957</t>
   </si>
   <si>
-    <t>r_2958</t>
-  </si>
-  <si>
-    <t>r_2964</t>
-  </si>
-  <si>
-    <t>r_2966</t>
+    <t>r_2959</t>
+  </si>
+  <si>
+    <t>r_2960</t>
+  </si>
+  <si>
+    <t>r_2961</t>
+  </si>
+  <si>
+    <t>r_2965</t>
+  </si>
+  <si>
+    <t>r_2967</t>
   </si>
   <si>
     <t>r_2968</t>
   </si>
   <si>
-    <t>r_2969</t>
-  </si>
-  <si>
-    <t>r_2976</t>
-  </si>
-  <si>
-    <t>r_2982</t>
-  </si>
-  <si>
-    <t>r_2984</t>
+    <t>r_2972</t>
+  </si>
+  <si>
+    <t>r_2991</t>
   </si>
   <si>
     <t>r_3000</t>
   </si>
   <si>
-    <t>r_3008</t>
-  </si>
-  <si>
-    <t>r_3029</t>
-  </si>
-  <si>
-    <t>r_3030</t>
-  </si>
-  <si>
-    <t>r_3033</t>
-  </si>
-  <si>
-    <t>r_3049</t>
-  </si>
-  <si>
-    <t>r_3053</t>
-  </si>
-  <si>
-    <t>r_3071</t>
-  </si>
-  <si>
-    <t>r_3075</t>
-  </si>
-  <si>
-    <t>r_3102</t>
-  </si>
-  <si>
-    <t>r_3103</t>
-  </si>
-  <si>
-    <t>r_3106</t>
+    <t>r_3001</t>
+  </si>
+  <si>
+    <t>r_3003</t>
+  </si>
+  <si>
+    <t>r_3004</t>
+  </si>
+  <si>
+    <t>r_3104</t>
   </si>
   <si>
     <t>r_3107</t>
   </si>
   <si>
-    <t>r_3279</t>
-  </si>
-  <si>
-    <t>r_3283</t>
-  </si>
-  <si>
-    <t>r_3288</t>
-  </si>
-  <si>
-    <t>r_3295</t>
-  </si>
-  <si>
-    <t>r_3296</t>
-  </si>
-  <si>
-    <t>r_3298</t>
-  </si>
-  <si>
-    <t>r_3300</t>
-  </si>
-  <si>
-    <t>r_3302</t>
-  </si>
-  <si>
     <t>r_3312</t>
   </si>
   <si>
@@ -2023,49 +1780,22 @@
     <t>r_3314</t>
   </si>
   <si>
-    <t>r_3315</t>
-  </si>
-  <si>
-    <t>r_3356</t>
-  </si>
-  <si>
-    <t>r_3359</t>
-  </si>
-  <si>
-    <t>r_3373</t>
-  </si>
-  <si>
-    <t>r_3379</t>
-  </si>
-  <si>
-    <t>r_3389</t>
-  </si>
-  <si>
-    <t>r_3395</t>
-  </si>
-  <si>
-    <t>r_3396</t>
-  </si>
-  <si>
-    <t>r_3401</t>
-  </si>
-  <si>
-    <t>r_3436</t>
-  </si>
-  <si>
-    <t>r_3442</t>
-  </si>
-  <si>
-    <t>r_3510</t>
+    <t>r_3365</t>
+  </si>
+  <si>
+    <t>r_3368</t>
+  </si>
+  <si>
+    <t>r_3501</t>
+  </si>
+  <si>
+    <t>r_3503</t>
   </si>
   <si>
     <t>r_3511</t>
   </si>
   <si>
-    <t>r_3512</t>
-  </si>
-  <si>
-    <t>r_3515</t>
+    <t>r_3516</t>
   </si>
   <si>
     <t>r_3517</t>
@@ -2140,30 +1870,18 @@
     <t>r_3548</t>
   </si>
   <si>
-    <t>r_3554</t>
-  </si>
-  <si>
     <t>r_3555</t>
   </si>
   <si>
     <t>r_3556</t>
   </si>
   <si>
-    <t>r_3557</t>
-  </si>
-  <si>
     <t>r_3558</t>
   </si>
   <si>
     <t>r_3559</t>
   </si>
   <si>
-    <t>r_3560</t>
-  </si>
-  <si>
-    <t>r_3561</t>
-  </si>
-  <si>
     <t>r_3562</t>
   </si>
   <si>
@@ -2176,22 +1894,13 @@
     <t>r_3565</t>
   </si>
   <si>
-    <t>r_3568</t>
-  </si>
-  <si>
-    <t>r_3569</t>
-  </si>
-  <si>
-    <t>r_3572</t>
-  </si>
-  <si>
-    <t>r_3573</t>
+    <t>r_3566</t>
   </si>
   <si>
     <t>r_3574</t>
   </si>
   <si>
-    <t>r_3575</t>
+    <t>r_3576</t>
   </si>
   <si>
     <t>r_3577</t>
@@ -2209,28 +1918,16 @@
     <t>r_3581</t>
   </si>
   <si>
-    <t>r_3588</t>
-  </si>
-  <si>
     <t>r_3589</t>
   </si>
   <si>
     <t>r_3590</t>
   </si>
   <si>
-    <t>r_3591</t>
-  </si>
-  <si>
     <t>r_3592</t>
   </si>
   <si>
-    <t>r_3594</t>
-  </si>
-  <si>
-    <t>r_3595</t>
-  </si>
-  <si>
-    <t>r_3596</t>
+    <t>r_3593</t>
   </si>
   <si>
     <t>r_3609</t>
@@ -2263,31 +1960,22 @@
     <t>r_3671</t>
   </si>
   <si>
-    <t>r_3676</t>
-  </si>
-  <si>
-    <t>r_3677</t>
-  </si>
-  <si>
-    <t>r_3681</t>
-  </si>
-  <si>
-    <t>r_3690</t>
+    <t>r_3682</t>
+  </si>
+  <si>
+    <t>r_3689</t>
   </si>
   <si>
     <t>r_3691</t>
   </si>
   <si>
-    <t>r_3700</t>
-  </si>
-  <si>
-    <t>r_3704</t>
-  </si>
-  <si>
-    <t>r_3709</t>
-  </si>
-  <si>
-    <t>r_3716</t>
+    <t>r_3693</t>
+  </si>
+  <si>
+    <t>r_3701</t>
+  </si>
+  <si>
+    <t>r_3706</t>
   </si>
   <si>
     <t>r_3743</t>
@@ -2299,9 +1987,6 @@
     <t>r_3745</t>
   </si>
   <si>
-    <t>r_3746</t>
-  </si>
-  <si>
     <t>r_3751</t>
   </si>
   <si>
@@ -2311,12 +1996,12 @@
     <t>r_3753</t>
   </si>
   <si>
-    <t>r_3754</t>
-  </si>
-  <si>
     <t>r_3755</t>
   </si>
   <si>
+    <t>r_3756</t>
+  </si>
+  <si>
     <t>r_3757</t>
   </si>
   <si>
@@ -2338,9 +2023,6 @@
     <t>r_3771</t>
   </si>
   <si>
-    <t>r_3772</t>
-  </si>
-  <si>
     <t>r_3773</t>
   </si>
   <si>
@@ -2359,28 +2041,10 @@
     <t>r_3779</t>
   </si>
   <si>
-    <t>r_3780</t>
-  </si>
-  <si>
-    <t>r_3781</t>
-  </si>
-  <si>
-    <t>r_3783</t>
-  </si>
-  <si>
-    <t>r_3784</t>
-  </si>
-  <si>
-    <t>r_3785</t>
-  </si>
-  <si>
-    <t>r_3787</t>
-  </si>
-  <si>
-    <t>r_3788</t>
-  </si>
-  <si>
-    <t>r_3789</t>
+    <t>r_3782</t>
+  </si>
+  <si>
+    <t>r_3786</t>
   </si>
   <si>
     <t>r_3790</t>
@@ -2392,16 +2056,7 @@
     <t>r_3792</t>
   </si>
   <si>
-    <t>r_3794</t>
-  </si>
-  <si>
-    <t>r_3795</t>
-  </si>
-  <si>
-    <t>r_3796</t>
-  </si>
-  <si>
-    <t>r_3797</t>
+    <t>r_3793</t>
   </si>
   <si>
     <t>r_3798</t>
@@ -2410,22 +2065,13 @@
     <t>r_3799</t>
   </si>
   <si>
-    <t>r_3805</t>
-  </si>
-  <si>
     <t>r_3806</t>
   </si>
   <si>
     <t>r_3808</t>
   </si>
   <si>
-    <t>r_3810</t>
-  </si>
-  <si>
-    <t>r_3811</t>
-  </si>
-  <si>
-    <t>r_3812</t>
+    <t>r_3809</t>
   </si>
   <si>
     <t>r_3813</t>
@@ -2494,25 +2140,13 @@
     <t>r_3859</t>
   </si>
   <si>
-    <t>r_3870</t>
-  </si>
-  <si>
-    <t>r_3874</t>
-  </si>
-  <si>
-    <t>r_3879</t>
+    <t>r_3877</t>
   </si>
   <si>
     <t>r_3880</t>
   </si>
   <si>
-    <t>r_3888</t>
-  </si>
-  <si>
-    <t>r_3892</t>
-  </si>
-  <si>
-    <t>r_3905</t>
+    <t>r_3903</t>
   </si>
   <si>
     <t>r_3906</t>
@@ -2533,10 +2167,7 @@
     <t>r_3966</t>
   </si>
   <si>
-    <t>r_3969</t>
-  </si>
-  <si>
-    <t>r_3970</t>
+    <t>r_3967</t>
   </si>
   <si>
     <t>r_3972</t>
@@ -2545,9 +2176,6 @@
     <t>r_3973</t>
   </si>
   <si>
-    <t>r_3975</t>
-  </si>
-  <si>
     <t>r_3976</t>
   </si>
   <si>
@@ -2590,19 +2218,16 @@
     <t>r_3999</t>
   </si>
   <si>
-    <t>r_4000</t>
-  </si>
-  <si>
     <t>r_4005</t>
   </si>
   <si>
+    <t>r_4007</t>
+  </si>
+  <si>
     <t>r_4008</t>
   </si>
   <si>
-    <t>r_4011</t>
-  </si>
-  <si>
-    <t>r_4014</t>
+    <t>r_4010</t>
   </si>
   <si>
     <t>r_4016</t>
@@ -2617,18 +2242,6 @@
     <t>r_4026</t>
   </si>
   <si>
-    <t>r_4030</t>
-  </si>
-  <si>
-    <t>r_4031</t>
-  </si>
-  <si>
-    <t>r_4036</t>
-  </si>
-  <si>
-    <t>r_4037</t>
-  </si>
-  <si>
     <t>r_4038</t>
   </si>
   <si>
@@ -2662,36 +2275,6 @@
     <t>r_4065</t>
   </si>
   <si>
-    <t>r_4090</t>
-  </si>
-  <si>
-    <t>r_4095</t>
-  </si>
-  <si>
-    <t>r_4099</t>
-  </si>
-  <si>
-    <t>r_4102</t>
-  </si>
-  <si>
-    <t>r_4103</t>
-  </si>
-  <si>
-    <t>r_4110</t>
-  </si>
-  <si>
-    <t>r_4111</t>
-  </si>
-  <si>
-    <t>r_4114</t>
-  </si>
-  <si>
-    <t>r_4116</t>
-  </si>
-  <si>
-    <t>r_4120</t>
-  </si>
-  <si>
     <t>r_4196</t>
   </si>
   <si>
@@ -2713,12 +2296,6 @@
     <t>r_4333</t>
   </si>
   <si>
-    <t>r_4378</t>
-  </si>
-  <si>
-    <t>r_4379</t>
-  </si>
-  <si>
     <t>r_4390</t>
   </si>
   <si>
@@ -2737,9 +2314,6 @@
     <t>r_4494</t>
   </si>
   <si>
-    <t>r_4498</t>
-  </si>
-  <si>
     <t>r_4505</t>
   </si>
   <si>
@@ -2815,6 +2389,36 @@
     <t>r_4646</t>
   </si>
   <si>
+    <t>r_4652</t>
+  </si>
+  <si>
+    <t>r_4656</t>
+  </si>
+  <si>
+    <t>r_4657</t>
+  </si>
+  <si>
+    <t>r_4658</t>
+  </si>
+  <si>
+    <t>r_4659</t>
+  </si>
+  <si>
+    <t>r_4670</t>
+  </si>
+  <si>
+    <t>r_4674</t>
+  </si>
+  <si>
+    <t>r_4675</t>
+  </si>
+  <si>
+    <t>r_4676</t>
+  </si>
+  <si>
+    <t>r_4677</t>
+  </si>
+  <si>
     <t>r_4682</t>
   </si>
   <si>
@@ -2827,19 +2431,7 @@
     <t>r_4703</t>
   </si>
   <si>
-    <t>r_4718</t>
-  </si>
-  <si>
-    <t>r_4720</t>
-  </si>
-  <si>
     <t>r_4724</t>
-  </si>
-  <si>
-    <t>r_4740</t>
-  </si>
-  <si>
-    <t>r_4741</t>
   </si>
   <si>
     <t>r_4745</t>
@@ -3203,7 +2795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B945"/>
+  <dimension ref="A1:B809"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3219,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.06448809008449047</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3227,7 +2819,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.06149731303026564</v>
+        <v>0.02154657410011472</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3235,7 +2827,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.02054730432283726</v>
+        <v>0.006561301213882984</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3243,7 +2835,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.00625700643494584</v>
+        <v>1.636939552869704E-05</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3251,7 +2843,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.561022879768384E-05</v>
+        <v>8.615470804663673E-05</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3259,7 +2851,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.215909391693111E-05</v>
+        <v>8.615470804663673E-05</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3267,7 +2859,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.215909391693111E-05</v>
+        <v>0.01907032861089075</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3275,7 +2867,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.01818590016602204</v>
+        <v>0.02832344493224226</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3283,7 +2875,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.02700988286071919</v>
+        <v>1.636939552869704E-05</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3291,7 +2883,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.561022879768384E-05</v>
+        <v>0.02635587401886427</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3299,7 +2891,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.03411093391081597</v>
+        <v>-0.02933287827039292</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3307,7 +2899,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.02797250150701658</v>
+        <v>0.02933287827039292</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3315,7 +2907,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.02797250150701658</v>
+        <v>1.636939552869704E-05</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3323,7 +2915,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.561022879768384E-05</v>
+        <v>0.02832344493224226</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3331,7 +2923,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.02700988286071919</v>
+        <v>0.02933287827039292</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3339,7 +2931,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.02797250150701658</v>
+        <v>0.005687099992479851</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3347,7 +2939,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.005423342112537051</v>
+        <v>0.0001723094160932735</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3355,7 +2947,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.0001643181878338622</v>
+        <v>0.02668455978712919</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3363,7 +2955,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.03453645419039901</v>
+        <v>0.02668455978712919</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3371,7 +2963,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.03453645419039901</v>
+        <v>0.0003286857682649247</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3379,7 +2971,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.0004255202795830425</v>
+        <v>0.00052295909071559</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3387,7 +2979,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.009588155282922135</v>
+        <v>0.00052295909071559</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3395,7 +2987,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.009588155282922135</v>
+        <v>-0.02933287827039292</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3403,7 +2995,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.02797250150701658</v>
+        <v>0.02933287827039292</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3411,7 +3003,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.02797250150701658</v>
+        <v>1.636939552869701E-05</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3419,7 +3011,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.561022879768383E-05</v>
+        <v>0.02668455978712919</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3427,7 +3019,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.03453645419039901</v>
+        <v>5.462208867337075E-06</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3435,7 +3027,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5.208886914021846E-06</v>
+        <v>5.462208867337075E-06</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3443,7 +3035,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5.208886914021846E-06</v>
+        <v>1.033856538635062E-07</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3451,7 +3043,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>8.266983348962247E-08</v>
+        <v>1.636939552869704E-05</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3459,7 +3051,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.561022879768384E-05</v>
+        <v>0.008822609709923327</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3467,7 +3059,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.01750288523914966</v>
+        <v>0.01709343803694854</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3475,7 +3067,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.01630081616339494</v>
+        <v>6.892376825519765E-07</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3483,7 +3075,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6.490819267110695E-07</v>
+        <v>1.636939552869704E-05</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3491,7 +3083,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.561022879768384E-05</v>
+        <v>1.636939552869704E-05</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3499,7 +3091,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.561022879768384E-05</v>
+        <v>0.3052423254700333</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3507,7 +3099,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.3063253521454056</v>
+        <v>0.05553507617169303</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3515,7 +3107,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.05295951483468777</v>
+        <v>0.05553507617169303</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3523,7 +3115,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.05295951483468777</v>
+        <v>0.01906324557177664</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3531,7 +3123,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.01817914561842984</v>
+        <v>0.1020044360782796</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3539,7 +3131,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.09727375594102704</v>
+        <v>0.1211166471516021</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3547,7 +3139,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.1154995900722141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3555,7 +3147,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>0.01880337290873799</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3563,7 +3155,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.01812894847667348</v>
+        <v>0.01880337290873799</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3571,7 +3163,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.01812894847667348</v>
+        <v>0.0008869224418130879</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3579,7 +3171,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.0008457894623066966</v>
+        <v>0.01209234145134885</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3587,7 +3179,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.01153165643457885</v>
+        <v>0.01207597205582027</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3595,7 +3187,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.01151604620578116</v>
+        <v>1.636939552869704E-05</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3603,7 +3195,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.561022879768384E-05</v>
+        <v>0.5979938170816914</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3611,7 +3203,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.6157078916593298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3619,7 +3211,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.008822506324267027</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3627,7 +3219,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.01750279275415893</v>
+        <v>0.01124853375297068</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3635,7 +3227,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.01981630782349234</v>
+        <v>0.01124853375297068</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3643,7 +3235,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.01981630782349234</v>
+        <v>0.005687099992479851</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3651,7 +3243,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.005423342112537051</v>
+        <v>0.04540460094041528</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -3659,7 +3251,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.04329886267973936</v>
+        <v>0.0327420770251771</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3667,7 +3259,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.03198656004060936</v>
+        <v>0.0327420770251771</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3675,7 +3267,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.03198656004060936</v>
+        <v>1.636939552869704E-05</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3683,7 +3275,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-1.686687898724836E-15</v>
+        <v>0.1160908130877028</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -3691,7 +3283,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.561022879768384E-05</v>
+        <v>6.090510218751848E-07</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3699,7 +3291,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.110706841815225</v>
+        <v>0.01191310394909845</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -3707,7 +3299,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-1.824929096727601E-15</v>
+        <v>0.003333531690401851</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -3715,7 +3307,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-1.538753933300053E-15</v>
+        <v>0.003333531690401851</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -3723,7 +3315,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>2.509104035652854E-15</v>
+        <v>0.01590348574656501</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -3731,7 +3323,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5.810062110986466E-07</v>
+        <v>0.01590348574656501</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -3739,7 +3331,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.01136060754412075</v>
+        <v>0.01590348574656501</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -3747,7 +3339,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.01226838139491801</v>
+        <v>0.01006462087447496</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -3755,7 +3347,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.01226838139491801</v>
+        <v>0.01006462087447496</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -3763,7 +3355,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.01516592660671917</v>
+        <v>0.00924167245037516</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -3771,7 +3363,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.01516592660671917</v>
+        <v>0.02395924577895044</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -3779,7 +3371,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.01516592660671917</v>
+        <v>-0.108681803771693</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -3787,7 +3379,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.009597851938824769</v>
+        <v>0.02395924577895044</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -3795,7 +3387,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.009597851938824769</v>
+        <v>0.0294417388440897</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -3803,7 +3395,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.008813069558414327</v>
+        <v>0.006561301213882984</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -3811,7 +3403,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.02284807693865778</v>
+        <v>5.926869462513059</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -3819,7 +3411,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.1218203390523775</v>
+        <v>-6.161737786669619E-15</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -3827,7 +3419,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.02284807693865778</v>
+        <v>0.003177164517940948</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -3835,7 +3427,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.02807631343211026</v>
+        <v>0.003177164517940948</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -3843,7 +3435,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.00625700643494584</v>
+        <v>0.003177164517940948</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -3851,7 +3443,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5.869981139361833</v>
+        <v>0.003177164517940948</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -3859,7 +3451,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5.129230373768224E-15</v>
+        <v>0.003177164517940948</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -3867,7 +3459,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.003029816523523598</v>
+        <v>0.003177164517940948</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -3875,7 +3467,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.003029816523523598</v>
+        <v>0.003177164517940948</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -3883,7 +3475,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.003029816523523598</v>
+        <v>0.003177164517940948</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -3891,7 +3483,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.003029816523523598</v>
+        <v>0.003177164517940948</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -3899,7 +3491,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.003029816523523598</v>
+        <v>0.003177164517940948</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -3907,7 +3499,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.003029816523523598</v>
+        <v>0.02514515819694017</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -3915,7 +3507,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.003029816523523598</v>
+        <v>8.184697764348518E-06</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -3923,7 +3515,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.003029816523523598</v>
+        <v>0.02334556588786</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -3931,7 +3523,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.003029816523523598</v>
+        <v>0.02668455978712919</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -3939,7 +3531,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.003029816523523598</v>
+        <v>0.331895200112115</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -3947,7 +3539,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.0239789961651335</v>
+        <v>0.535390889140813</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -3955,7 +3547,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7.805114398841919E-06</v>
+        <v>1.617323632657764E-09</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -3963,7 +3555,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>3.370924173910079E-10</v>
+        <v>0.331895200112115</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -3971,7 +3563,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.02226286390856698</v>
+        <v>0.009133918229131411</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -3979,7 +3571,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.03453645419039901</v>
+        <v>8.615471031899707E-08</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -3987,7 +3579,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.3258946762043227</v>
+        <v>0.004241514609127882</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -3995,7 +3587,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.5256357848121798</v>
+        <v>6.186056316357176E-05</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -4003,7 +3595,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6.710911150571708E-09</v>
+        <v>0.001444104777636776</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -4011,7 +3603,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.3258946762043227</v>
+        <v>8.264697114654343E-06</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -4019,7 +3611,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.009013486331934229</v>
+        <v>0.0006531612301664768</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -4027,7 +3619,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>8.113524083888368E-08</v>
+        <v>0.003177164517940948</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -4035,7 +3627,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.004044805411175601</v>
+        <v>0.0003062914339705944</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -4043,7 +3635,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5.90246917210243E-05</v>
+        <v>-0.0002067713151087499</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -4051,7 +3643,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.001377128744030238</v>
+        <v>0.0003156191614710056</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -4059,7 +3651,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7.885814384568655E-06</v>
+        <v>5.462208867337075E-06</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -4067,7 +3659,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.0006228694411348623</v>
+        <v>5.462208867337075E-06</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -4075,7 +3667,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.003029816523523598</v>
+        <v>4.85315784546189E-06</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -4083,7 +3675,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.0002920868684255372</v>
+        <v>-0.00924167245037516</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -4091,7 +3683,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-0.000197181840464844</v>
+        <v>5.462208867337075E-06</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -4099,7 +3691,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.000300981628482133</v>
+        <v>0.05553507617169303</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -4107,7 +3699,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>5.208886914021846E-06</v>
+        <v>0.01907032861089075</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -4115,7 +3707,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5.20888691402189E-06</v>
+        <v>0.006354415190592213</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -4123,7 +3715,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>4.627880702923243E-06</v>
+        <v>0.06125079763272862</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -4131,7 +3723,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-0.008813069558414327</v>
+        <v>0.06125079763272862</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -4139,7 +3731,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5.208886914021846E-06</v>
+        <v>3.865518633074149E-06</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -4147,7 +3739,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.05295951483468777</v>
+        <v>1.184665803523329</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -4155,7 +3747,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.01818590016602204</v>
+        <v>8.615471031899707E-08</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -4163,7 +3755,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.006059715206143281</v>
+        <v>9.066406205611967</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -4171,7 +3763,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.05841015713813612</v>
+        <v>4.533203102805984</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -4179,7 +3771,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.05841015713813612</v>
+        <v>8.615470836006567E-07</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -4187,7 +3779,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>3.685873142573978E-06</v>
+        <v>0.3156270533467433</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -4195,7 +3787,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>1.144799138416781</v>
+        <v>-0.3116423192834093</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -4203,7 +3795,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>8.215909608390569E-08</v>
+        <v>-4.314726141572815E-06</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -4211,7 +3803,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>8.995474174946793</v>
+        <v>0.4290313071061479</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -4219,7 +3811,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>4.497737087473396</v>
+        <v>0.4154900677453016</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -4227,7 +3819,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>8.215909421582411E-07</v>
+        <v>0.03597462920945659</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -4235,7 +3827,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.3128774490173782</v>
+        <v>0.00924167245037516</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -4243,7 +3835,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-0.299988065637526</v>
+        <v>0.1968497674308327</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -4251,7 +3843,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-4.115175943916165E-06</v>
+        <v>0.006354415190592213</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -4259,7 +3851,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.4251689099468011</v>
+        <v>0.3052423254700333</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -4267,7 +3859,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.4112956509704114</v>
+        <v>0.553033167836409</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -4275,7 +3867,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.05248510985420392</v>
+        <v>0.01339945467977075</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -4283,7 +3875,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.008813069558414327</v>
+        <v>-2.437153221476572E-15</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -4291,7 +3883,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.1978131585298532</v>
+        <v>0.62547686047919</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -4299,7 +3891,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.006059715206143281</v>
+        <v>0.01339945467977075</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -4307,7 +3899,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.3063253521454056</v>
+        <v>0.07784431380060639</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -4315,7 +3907,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.5585229395829998</v>
+        <v>0.0104307873202975</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -4323,7 +3915,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.01258040213482083</v>
+        <v>0.02986728311434862</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -4331,7 +3923,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>-9.81515724164971E-09</v>
+        <v>1.406287084161983</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -4339,7 +3931,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.6296813379685975</v>
+        <v>0.1968497674308327</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -4347,7 +3939,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.01258040213482083</v>
+        <v>0.2028339921240735</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -4355,7 +3947,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.1105918985577105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -4363,7 +3955,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.009947036610140431</v>
+        <v>0.008822609709923327</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -4371,7 +3963,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.02848212215062032</v>
+        <v>0.157855259591059</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -4379,7 +3971,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>1.380265115457366</v>
+        <v>0.3532523315210349</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -4387,7 +3979,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.1978131585298532</v>
+        <v>-0.1578345754693887</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -4395,7 +3987,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.2035197726589902</v>
+        <v>0.4154907569829843</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -4403,7 +3995,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>0.03113756400696466</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -4411,7 +4003,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.01750288523914966</v>
+        <v>0.02873909412732496</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -4419,7 +4011,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.1564785910797421</v>
+        <v>0.00413527378517933</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -4427,7 +4019,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.3578473389707434</v>
+        <v>5.462208867337075E-06</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -4435,7 +4027,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>-0.1564588656750004</v>
+        <v>8.615470804663673E-05</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -4443,7 +4035,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.4112963000523384</v>
+        <v>0.0002052701325701906</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -4451,7 +4043,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.029693490972169</v>
+        <v>9.311809945253239E-05</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -4459,7 +4051,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.0274062554099339</v>
+        <v>8.615471031899707E-08</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -4467,7 +4059,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.00394349136561243</v>
+        <v>8.615471031899707E-08</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -4475,7 +4067,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>5.20888691402189E-06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -4483,7 +4075,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>8.215909391693111E-05</v>
+        <v>6.389369526516031E-10</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -4491,7 +4083,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.0001706804410827924</v>
+        <v>0.006561301213882984</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -4499,7 +4091,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.0001138693802130043</v>
+        <v>0.006561301213882984</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -4507,7 +4099,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>8.215909608390569E-08</v>
+        <v>0.006561301213882984</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -4515,7 +4107,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>8.215909608390569E-08</v>
+        <v>0.006561301213882984</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -4523,7 +4115,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>0.02832344493224226</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -4531,7 +4123,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>0.02832344493224226</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -4539,7 +4131,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.00625700643494584</v>
+        <v>0.02395924577895044</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -4547,7 +4139,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.00625700643494584</v>
+        <v>0.01894167641216577</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -4555,7 +4147,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.00625700643494584</v>
+        <v>0.005017569366784679</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -4563,7 +4155,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.00625700643494584</v>
+        <v>8.086618163288817E-10</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -4571,7 +4163,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.02700988286071919</v>
+        <v>8.615471031899707E-08</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -4579,7 +4171,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.02700988286071919</v>
+        <v>0.01906324557177664</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -4587,7 +4179,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.02284807693865778</v>
+        <v>0.01906324557177664</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -4595,7 +4187,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.01806321449605328</v>
+        <v>1.033856563006594E-07</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -4603,7 +4195,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.004784862442604502</v>
+        <v>0.006561301213882984</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -4611,7 +4203,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>2.681270740503838E-09</v>
+        <v>0.006561301213882984</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -4619,7 +4211,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>1.216222472157898E-09</v>
+        <v>0.00413527378517933</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -4627,7 +4219,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>8.113524083888368E-08</v>
+        <v>0.003333531690401851</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -4635,7 +4227,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.01817914561842984</v>
+        <v>0.1500842377539236</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -4643,7 +4235,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.01817914561842984</v>
+        <v>0.4551114338910079</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -4651,7 +4243,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>9.370121320343009E-08</v>
+        <v>0.01538380753815002</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -4659,7 +4251,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.00625700643494584</v>
+        <v>0.4457024673779372</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -4667,7 +4259,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.00625700643494584</v>
+        <v>0.009133918229131411</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -4675,7 +4267,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.00394349136561243</v>
+        <v>-0.01907032861089075</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -4683,7 +4275,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.01226838139491801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -4691,7 +4283,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.140935964533532</v>
+        <v>0.01907032861089075</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -4699,7 +4291,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.4271028132905833</v>
+        <v>0.006354415190592213</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -4707,7 +4299,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.02375979918910476</v>
+        <v>0.01907032861089075</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -4715,7 +4307,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.4338056921819164</v>
+        <v>0.00052295909071559</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -4723,7 +4315,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.009013486331934229</v>
+        <v>0.02832344493224226</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -4731,7 +4323,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>-0.01818590016602204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -4739,7 +4331,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>0.00052295909071559</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -4747,7 +4339,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.01818590016602204</v>
+        <v>0.003177164517940948</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -4755,7 +4347,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.006059715206143281</v>
+        <v>-0.02933287827039292</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -4763,7 +4355,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.01818590016602204</v>
+        <v>0.02933287827039292</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -4771,7 +4363,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.009588155282922135</v>
+        <v>0.02832344493224226</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -4779,7 +4371,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>-1.156111410259512E-05</v>
+        <v>0.535390889140813</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -4787,7 +4379,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.02700988286071919</v>
+        <v>-0.1025588295353558</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -4795,7 +4387,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0</v>
+        <v>-8.086618163288817E-10</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -4803,7 +4395,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.009588155282922135</v>
+        <v>0.005782680343850708</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -4811,7 +4403,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.003029816523523598</v>
+        <v>0.01284995781411187</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -4819,7 +4411,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>-0.02797250150701658</v>
+        <v>0.06125079763272862</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -4827,7 +4419,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.02797250150701658</v>
+        <v>-0.06125079699379167</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -4835,7 +4427,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.02700988286071919</v>
+        <v>4.314726141572815E-06</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -4843,7 +4435,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.5256357848121798</v>
+        <v>0.3358487365314826</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -4851,7 +4443,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>-0.07085535032901527</v>
+        <v>0.01209234145134885</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -4859,7 +4451,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>-3.355455575285854E-09</v>
+        <v>0.01709343803694854</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -4867,7 +4459,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.002546694404707324</v>
+        <v>0.005017465981128377</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -4875,7 +4467,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.006453635292199561</v>
+        <v>0.001057546885307263</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -4883,7 +4475,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.05841015713813612</v>
+        <v>0.3347911896461753</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -4891,7 +4483,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>-0.05841015713813612</v>
+        <v>4.314726141572815E-06</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -4899,7 +4491,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>4.115175943916165E-06</v>
+        <v>0.007368759867414039</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -4907,7 +4499,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.3412507500657804</v>
+        <v>0.01169448570436261</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -4915,7 +4507,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.01153165643457885</v>
+        <v>0.01906324557177664</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -4923,7 +4515,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.01630081616339494</v>
+        <v>0.0007260706037911718</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -4931,7 +4523,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.004784769957613772</v>
+        <v>0.0007260706037911775</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -4939,7 +4531,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.001574322321713619</v>
+        <v>0.01880337290873799</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -4947,7 +4539,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.3396764277440668</v>
+        <v>0.00052295909071559</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -4955,7 +4547,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>4.115175943916165E-06</v>
+        <v>0.00052295909071559</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -4963,7 +4555,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.007027166928328406</v>
+        <v>1.705572942848927</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -4971,7 +4563,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.01115197869010143</v>
+        <v>0.0002817259073074009</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -4979,7 +4571,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.01817914561842984</v>
+        <v>1.921179991082782</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -4987,7 +4579,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.0006923848580808213</v>
+        <v>0.00052295909071559</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -4995,7 +4587,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.00069238485808083</v>
+        <v>0.00052295909071559</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -5003,7 +4595,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.01812894847667348</v>
+        <v>0.01271751172206365</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -5011,7 +4603,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.009588155282922135</v>
+        <v>0.07259094830261326</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -5019,7 +4611,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.009588155282922135</v>
+        <v>0.1333307122684292</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -5027,7 +4619,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>1.719865330703396</v>
+        <v>0.0035733612034916</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -5035,7 +4627,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.0002686602485470436</v>
+        <v>-0.001382244214473204</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -5043,7 +4635,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>1.880882694927705</v>
+        <v>0.01590348574656501</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -5051,7 +4643,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.009588155282922135</v>
+        <v>0.01880337290873799</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -5059,7 +4651,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.009588155282922135</v>
+        <v>0.002899887162172967</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -5067,7 +4659,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.01212732231675807</v>
+        <v>-0.00924167245037516</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -5075,7 +4667,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.07831383294245943</v>
+        <v>0.00924167245037516</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -5083,7 +4675,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.1271472071537108</v>
+        <v>0.4154907569829843</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -5091,7 +4683,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.003407641213583533</v>
+        <v>0.4154907569829843</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -5099,7 +4691,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>-0.001318104052309214</v>
+        <v>1.636939552869705E-05</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -5107,7 +4699,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.01516592660671917</v>
+        <v>1.636939552869704E-05</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -5115,7 +4707,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.01812894847667348</v>
+        <v>1.636939552869704E-05</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -5123,7 +4715,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.0029630218699543</v>
+        <v>-0.02245405096968387</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -5131,7 +4723,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>-0.008813069558414327</v>
+        <v>0.01325125610116681</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -5139,7 +4731,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.008813069558414327</v>
+        <v>0.008822609709923327</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -5147,7 +4739,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.4112963000523384</v>
+        <v>0.005687099992479851</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -5155,7 +4747,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.4112963000523384</v>
+        <v>0.4290313071061479</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -5163,7 +4755,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>1.561022879768384E-05</v>
+        <v>0.2382371898857302</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -5171,7 +4763,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>1.561022879768384E-05</v>
+        <v>0.1290853321406683</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -5179,7 +4771,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>1.561022879768384E-05</v>
+        <v>0.3052423254700333</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -5187,7 +4779,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>-0.01679633578186279</v>
+        <v>0.2216212806386549</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -5195,7 +4787,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.01263669994614498</v>
+        <v>1.406287084161983</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -5203,7 +4795,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.01750288523914966</v>
+        <v>1.184665803523329</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -5211,7 +4803,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.005423342112537051</v>
+        <v>-0.06125079763272862</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -5219,7 +4811,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.4251689099468011</v>
+        <v>1.033856563006594E-07</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -5227,7 +4819,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.2312422766568855</v>
+        <v>0.01906324557177664</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -5235,7 +4827,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.1230987158693927</v>
+        <v>1.636939552869704E-05</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -5243,7 +4835,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.3063253521454056</v>
+        <v>1.636939552869704E-05</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -5251,7 +4843,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.2354659770405853</v>
+        <v>-1.636939552869705E-05</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -5259,7 +4851,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>1.380265115457366</v>
+        <v>0.008822506324267027</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -5267,7 +4859,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>1.144799138416781</v>
+        <v>0.006561301213882984</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -5275,7 +4867,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>-0.05841015713813612</v>
+        <v>0.006561301213882984</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -5283,7 +4875,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>9.370121320343009E-08</v>
+        <v>0.008822506324267027</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -5291,7 +4883,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.01817914561842984</v>
+        <v>0.01538380753815002</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -5299,7 +4891,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>1.561022879768384E-05</v>
+        <v>0.003333531690401851</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -5307,7 +4899,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>1.561022879768384E-05</v>
+        <v>0.008822609709923327</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -5315,7 +4907,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>-1.561022879768384E-05</v>
+        <v>0.008822609709923327</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -5323,7 +4915,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.01750279275415893</v>
+        <v>0.02848207415529892</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -5331,7 +4923,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.00625700643494584</v>
+        <v>0.2216212806386549</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -5339,7 +4931,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.00625700643494584</v>
+        <v>0.2216212806386549</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -5347,7 +4939,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.01750279275415893</v>
+        <v>3.446188412759882E-07</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -5355,7 +4947,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.02375979918910476</v>
+        <v>1.636939552869704E-05</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -5363,7 +4955,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.01226838139491801</v>
+        <v>0.01325125610116681</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -5371,7 +4963,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.01750288523914966</v>
+        <v>0.0100943097866932</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -5379,7 +4971,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.01750288523914966</v>
+        <v>0.01629934184194372</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -5387,7 +4979,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.05442949791034997</v>
+        <v>4.307735515949853E-08</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -5395,7 +4987,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.2354659770405853</v>
+        <v>0.01629934184194372</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -5403,7 +4995,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.2354659770405853</v>
+        <v>0.2112406357330343</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -5411,7 +5003,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>3.245409633555348E-07</v>
+        <v>0.1160908130877028</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -5419,7 +5011,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>1.561022879768384E-05</v>
+        <v>0.6502452137558932</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -5427,7 +5019,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.01263669994614498</v>
+        <v>1.13129668394907</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -5435,7 +5027,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.009626163962422003</v>
+        <v>0.0001723094160932735</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -5443,7 +5035,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.01554342400477434</v>
+        <v>8.615470804663673E-05</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -5451,7 +5043,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>4.056762041944184E-08</v>
+        <v>9.311809945253239E-05</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -5459,7 +5051,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.01554342400477434</v>
+        <v>3.865518633074149E-06</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -5467,7 +5059,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.1926756994477595</v>
+        <v>0.0002170388531511362</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -5475,7 +5067,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.110706841815225</v>
+        <v>0.0005130627490793442</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -5483,7 +5075,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0</v>
+        <v>0.0002067713151087499</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -5491,7 +5083,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.6351634918495893</v>
+        <v>0.1295838511978524</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -5499,7 +5091,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>1.075726230035983</v>
+        <v>0.1754861648560876</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -5507,7 +5099,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.0001643181878338622</v>
+        <v>0.02832344493224226</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -5515,7 +5107,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>8.215909391693111E-05</v>
+        <v>0.02832344493224226</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -5523,7 +5115,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.0001138693802130043</v>
+        <v>0.2382371898857302</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -5531,7 +5123,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>3.685873142573978E-06</v>
+        <v>0.01834789226909781</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -5539,7 +5131,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.0001819033613551069</v>
+        <v>0.02668455978712919</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -5547,7 +5139,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.0004892687088903815</v>
+        <v>0.02668455978712919</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -5555,7 +5147,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.000197181840464844</v>
+        <v>1.636939552869704E-05</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -5563,7 +5155,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.1498625877383992</v>
+        <v>0.003177164517940948</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -5571,7 +5163,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.1562984462191727</v>
+        <v>0.003177164517940948</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -5579,7 +5171,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.02700988286071919</v>
+        <v>0.9064501688742757</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -5587,7 +5179,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.02700988286071919</v>
+        <v>0.4154983324424163</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -5595,7 +5187,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.2312422766568855</v>
+        <v>1.033856538635062E-07</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -5603,7 +5195,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.01749696839897059</v>
+        <v>0.005687099992479851</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -5611,7 +5203,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.03453645419039901</v>
+        <v>0.005687099992479851</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -5619,7 +5211,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.03453645419039901</v>
+        <v>1.033856563006594E-07</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -5627,7 +5219,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>1.561022879768384E-05</v>
+        <v>0.005997727459166109</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -5635,7 +5227,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.003029816523523598</v>
+        <v>0.01894167641216577</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -5643,7 +5235,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.003029816523523598</v>
+        <v>0.01894167641216577</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -5651,7 +5243,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.8969890618422939</v>
+        <v>0.0003101569526036685</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -5659,7 +5251,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.411303536784796</v>
+        <v>-0.1371518469175352</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -5667,7 +5259,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>8.266983348962247E-08</v>
+        <v>0.1010853429681951</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -5675,7 +5267,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.005423342112537051</v>
+        <v>0.07440078318106587</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -5683,7 +5275,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.005423342112537051</v>
+        <v>0.01191310394909845</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -5691,7 +5283,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>9.370121320343009E-08</v>
+        <v>0.6612842722986373</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -5699,7 +5291,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.00571954292561397</v>
+        <v>0.003333531690401851</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -5707,7 +5299,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.01806321449605328</v>
+        <v>0.002810572599686261</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -5715,7 +5307,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.01806321449605328</v>
+        <v>0.02653071014885925</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -5723,7 +5315,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.0002957727415681111</v>
+        <v>0.0100943097866932</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -5731,7 +5323,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>-0.1358248474822747</v>
+        <v>0.004245380127760956</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -5739,7 +5331,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.09541742917461085</v>
+        <v>8.615471031899707E-08</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -5747,7 +5339,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.06088097498421181</v>
+        <v>8.615471031899707E-08</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -5755,7 +5347,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.01136060754412075</v>
+        <v>0.1290853321406683</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -5763,7 +5355,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.6507045724745495</v>
+        <v>-0.02618582850577143</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -5771,7 +5363,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.01226838139491801</v>
+        <v>0.02618582850577143</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -5779,7 +5371,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.002680226111995873</v>
+        <v>0.02832344493224226</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -5787,7 +5379,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.02412663765878845</v>
+        <v>6.323568736772879</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -5795,7 +5387,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.009626163962422003</v>
+        <v>-0.04854114497430759</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -5803,7 +5395,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.004048491284318173</v>
+        <v>0.5492609392853016</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -5811,7 +5403,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>8.113524083888368E-08</v>
+        <v>-0.0313191875672511</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -5819,7 +5411,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>8.113524083888368E-08</v>
+        <v>-0.02635587401886427</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -5827,7 +5419,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.1230987158693927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -5835,7 +5427,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>-0.0249714030988735</v>
+        <v>0.01906324638043844</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -5843,7 +5435,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.0249714030988735</v>
+        <v>0.4892759447465516</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -5851,7 +5443,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0</v>
+        <v>-0.4892759447465516</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -5859,7 +5451,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.02700988286071919</v>
+        <v>6.389369526516031E-10</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -5867,7 +5459,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6.263159842845903</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -5875,7 +5467,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>-0.05197340266292198</v>
+        <v>2.705257951030858E-06</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -5883,7 +5475,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.5874136489921088</v>
+        <v>8.615471031899707E-08</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -5891,7 +5483,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>-0.02687594837312913</v>
+        <v>0.06379257432324734</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -5899,7 +5491,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>-0.03411093391081597</v>
+        <v>0.01880337290873799</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -5907,7 +5499,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0</v>
+        <v>0.427178787664226</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -5915,7 +5507,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.01817914897388542</v>
+        <v>3.34693583306509</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -5923,7 +5515,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.481822801253038</v>
+        <v>0.0003127415935410416</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -5931,7 +5523,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>-0.481822801253038</v>
+        <v>-0.0003420341975177536</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -5939,7 +5531,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>0.009241775836029019</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -5947,7 +5539,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>2.579795661868596E-06</v>
+        <v>0.007410194164696032</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -5955,7 +5547,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>8.215909608390569E-08</v>
+        <v>-4.195868359267281</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -5963,7 +5555,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.061240861166323</v>
+        <v>-0.02635587401886427</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -5971,7 +5563,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.01812894847667348</v>
+        <v>-1.636939552869704E-05</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -5979,7 +5571,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.5346195542903697</v>
+        <v>-0.02933287827039292</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -5987,7 +5579,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>3.572151555356148</v>
+        <v>0.01907032861089075</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -5995,7 +5587,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.000298237514095693</v>
+        <v>-0.01907032861089075</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -6003,7 +5595,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>-0.0003261716091180032</v>
+        <v>1.033856563006594E-07</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -6011,7 +5603,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.008813152228247814</v>
+        <v>5.462208867337075E-06</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -6019,7 +5611,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.007066524001635825</v>
+        <v>-6.892376825519765E-07</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -6027,7 +5619,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>6.105928305578043E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -6035,7 +5627,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>-4.334075927481513</v>
+        <v>-0.0327420770251771</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -6051,7 +5643,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>-0.03411093391081597</v>
+        <v>-0.5492609392853016</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -6059,7 +5651,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>-1.561022879768384E-05</v>
+        <v>0.02545889498340956</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -6067,7 +5659,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>-0.02797250150701658</v>
+        <v>0.3129313350248446</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -6075,7 +5667,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>-1.686687898724836E-15</v>
+        <v>-0.02545889498340956</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -6083,7 +5675,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>1.686687898724836E-15</v>
+        <v>2.486415715272333</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -6091,7 +5683,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>1.686687898724836E-15</v>
+        <v>0.003177164517940948</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -6099,7 +5691,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>-1.686687898724836E-15</v>
+        <v>1.617323632657764E-09</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -6107,7 +5699,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>1.538753933300053E-15</v>
+        <v>-0.02545889498340956</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -6115,7 +5707,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.01818590016602204</v>
+        <v>-1.871410379969413</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -6123,7 +5715,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>-0.01818590016602204</v>
+        <v>2.486415715272333</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -6131,7 +5723,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>1.824929096727601E-15</v>
+        <v>8.086618163288817E-10</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -6139,7 +5731,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>1.824929096727601E-15</v>
+        <v>0.001536088766780383</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -6147,7 +5739,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>9.24849907312722E-08</v>
+        <v>-0.0005130627490793442</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -6155,7 +5747,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>5.208886914021846E-06</v>
+        <v>0.02635587401886427</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -6163,7 +5755,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>-6.490819267110695E-07</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -6171,7 +5763,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>-0.03198656004060936</v>
+        <v>-6.389369526516031E-10</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -6179,7 +5771,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>-0.5874136489921088</v>
+        <v>-0.0003101569526036685</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -6187,7 +5779,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.02360092668485387</v>
+        <v>1.636939552869705E-05</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -6195,7 +5787,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.2903275248690663</v>
+        <v>5.462208867337075E-06</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -6203,7 +5795,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>-0.02360092668485387</v>
+        <v>4.85315784546189E-06</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -6211,7 +5803,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>2.458488239885962</v>
+        <v>-5.462208867337075E-06</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -6219,7 +5811,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.003029816523523598</v>
+        <v>0.1968497674308327</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -6227,7 +5819,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>6.710911150571708E-09</v>
+        <v>-0.06125079763272862</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -6235,7 +5827,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>-0.02360092668485387</v>
+        <v>0.003177164517940948</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -6243,7 +5835,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>-1.826716964813088</v>
+        <v>0.00229024207612786</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -6251,7 +5843,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>2.458488239885962</v>
+        <v>8.086618163288817E-10</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -6259,7 +5851,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>3.355455575285854E-09</v>
+        <v>8.086618163288817E-10</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -6267,7 +5859,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.00146461233554701</v>
+        <v>-0.03274207783383892</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -6275,7 +5867,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>-0.0004892687088903814</v>
+        <v>8.615471031899707E-08</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -6283,7 +5875,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.03411093391081597</v>
+        <v>4.314726141572815E-06</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -6291,7 +5883,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>-1</v>
+        <v>0.1968497674308327</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -6299,7 +5891,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>-0.0002957727415681111</v>
+        <v>0.3156905242981303</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -6307,7 +5899,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>1.561022879768384E-05</v>
+        <v>-5.462208867337075E-06</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -6315,7 +5907,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>5.20888691402189E-06</v>
+        <v>-5.565594523637731E-06</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -6323,7 +5915,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>4.627880702923243E-06</v>
+        <v>5.565594523637731E-06</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -6331,7 +5923,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>-5.208886914021846E-06</v>
+        <v>0.006354329035881896</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -6339,7 +5931,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.1978131585298532</v>
+        <v>-0.02545889498340956</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -6347,7 +5939,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>-0.05841015713813612</v>
+        <v>-4.043309081644409E-09</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -6355,7 +5947,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.003029816523523598</v>
+        <v>-0.02451210177804101</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -6363,7 +5955,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.0021840270612169</v>
+        <v>0.02832344493224226</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -6371,7 +5963,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>3.355455575285854E-09</v>
+        <v>-0.01906324557177664</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -6379,7 +5971,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>3.355455575285854E-09</v>
+        <v>-2.705257951030858E-06</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -6387,7 +5979,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>-0.03198656339606494</v>
+        <v>0.01629934184194372</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -6395,7 +5987,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>8.215909608390569E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -6403,7 +5995,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>4.115175943916165E-06</v>
+        <v>2.425985448986645E-09</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -6411,7 +6003,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.1978131585298532</v>
+        <v>-0.06125079763272862</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -6419,7 +6011,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.3129381058366692</v>
+        <v>-0.006354329035881896</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -6427,7 +6019,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>-5.20888691402189E-06</v>
+        <v>0.006354329035881896</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -6435,7 +6027,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>-5.301371904753163E-06</v>
+        <v>-0.1578469948939443</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -6443,7 +6035,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>5.301371904753163E-06</v>
+        <v>0.003177164517940948</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -6451,7 +6043,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.006059633047047196</v>
+        <v>2.266601766789768</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -6459,7 +6051,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>-3.515666490566671E-15</v>
+        <v>2.313819347851689</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -6467,7 +6059,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>-0.02360092668485387</v>
+        <v>8.086618163288817E-10</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -6475,7 +6067,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>-1.745146271121128E-08</v>
+        <v>-8.086618163288817E-10</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -6483,7 +6075,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>-0.04155396683294899</v>
+        <v>-2.313819347851689</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -6491,7 +6083,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.02700988286071919</v>
+        <v>-0.427178787664226</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -6499,7 +6091,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>-0.01817914561842984</v>
+        <v>-0.0003127415935410416</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -6507,7 +6099,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>-2.509104035652854E-15</v>
+        <v>8.615471031899707E-08</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -6515,7 +6107,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>-2.509104035652854E-15</v>
+        <v>8.615470804663673E-05</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -6523,7 +6115,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>-2.579795661868596E-06</v>
+        <v>0.4551113477362976</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -6531,7 +6123,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>-1.824929096727601E-15</v>
+        <v>0.2724853765027703</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -6539,7 +6131,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>-1.824929096727601E-15</v>
+        <v>8.086618163288817E-10</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -6547,7 +6139,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>-1.538753933300053E-15</v>
+        <v>-0.1578345754693887</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -6555,7 +6147,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>-1.538753933300053E-15</v>
+        <v>-0.0003420341975177536</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -6563,7 +6155,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>1.538753933300053E-15</v>
+        <v>0.003177164517940948</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -6571,7 +6163,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>1.156111410259512E-05</v>
+        <v>0.003177164517940948</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -6579,7 +6171,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>0.01554342400477434</v>
+        <v>-0.007410194164696032</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -6587,7 +6179,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0</v>
+        <v>1.033856563006594E-07</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -6595,7 +6187,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>1.006636672585757E-08</v>
+        <v>6.467882968701644E-08</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -6603,7 +6195,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>-0.05841015713813612</v>
+        <v>3.870682661364291E-08</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -6611,7 +6203,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>-0.006059633047047196</v>
+        <v>-0.02618582850577143</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -6619,7 +6211,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>0.006059633047047196</v>
+        <v>-0.003177164517940948</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -6627,7 +6219,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>-0.1564707052653575</v>
+        <v>-7.847741781356829</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -6635,7 +6227,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>0.003029816523523598</v>
+        <v>0.02545889498340956</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -6643,7 +6235,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>2.248868747598654</v>
+        <v>8.086618163288817E-10</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -6651,7 +6243,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>2.321164859393193</v>
+        <v>4.195868359267281</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -6659,7 +6251,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>3.018363157894846E-09</v>
+        <v>0.08615471053651674</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -6667,7 +6259,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>-2.681270740503838E-09</v>
+        <v>0.08615471053651674</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -6675,7 +6267,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>-2.321164859393193</v>
+        <v>0.00052295909071559</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -6683,7 +6275,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>-0.5346195542903697</v>
+        <v>0.009202794868517059</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -6691,7 +6283,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>-0.000298237514095693</v>
+        <v>-0.01643640036216606</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -6699,7 +6291,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>8.113524083888368E-08</v>
+        <v>-0.0008815540884203404</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -6707,7 +6299,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>8.215909391693111E-05</v>
+        <v>0.0805545051510683</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -6715,7 +6307,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>0.4271027311314871</v>
+        <v>0.1072142719862232</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -6723,7 +6315,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.2684647376635291</v>
+        <v>0.01075269757402321</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -6731,7 +6323,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>2.681270740490963E-09</v>
+        <v>0.003341944132514649</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -6739,7 +6331,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>-0.1564588656750004</v>
+        <v>0.008036025265006044</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -6747,7 +6339,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>-0.0003261716091180032</v>
+        <v>0.002655597166280939</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -6755,7 +6347,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>0.003029816523523598</v>
+        <v>-2.096706055304543E-15</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -6763,7 +6355,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>0.003029816523523598</v>
+        <v>-0.0005032164163008851</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -6771,7 +6363,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>-0.007066524001635825</v>
+        <v>2.096706055304543E-15</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -6779,7 +6371,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>-4.889705833420145E-09</v>
+        <v>-2.096706055304543E-15</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -6787,7 +6379,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>1.216222472157898E-09</v>
+        <v>8.086618163288817E-10</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -6795,7 +6387,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>-6.105928305578043E-09</v>
+        <v>8.086618163288817E-10</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -6803,7 +6395,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>9.859091903685026E-08</v>
+        <v>8.086618163288817E-10</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -6811,7 +6403,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>5.042464072877853E-08</v>
+        <v>8.086618163288817E-10</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -6819,7 +6411,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>4.206035000249369E-08</v>
+        <v>0.009133918229131411</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -6827,7 +6419,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>2.509104035652854E-15</v>
+        <v>0.002315828999857266</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -6835,7 +6427,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>2.509104035652854E-15</v>
+        <v>0.002606384680802188</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -6843,7 +6435,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>-0.0249714030988735</v>
+        <v>0.0006445775150734907</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -6851,7 +6443,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>-0.003029816523523598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -6859,7 +6451,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>-7.909745812394175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -6867,7 +6459,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>0.02360092668485387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -6875,7 +6467,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>4.02964041006787E-09</v>
+        <v>0.0004008433091650548</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -6883,7 +6475,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>4.334075927481513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -6891,7 +6483,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>0.08215909629133747</v>
+        <v>1.659018834266846E-05</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -6899,7 +6491,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>0.08215909629133747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -6907,7 +6499,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>0.009588155282922135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -6923,7 +6515,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>0.004159635835717815</v>
+        <v>0.001089230483271762</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -6931,7 +6523,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>-0.01450047369636646</v>
+        <v>0.001226598516585505</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -6939,7 +6531,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>-0.0008693475257347998</v>
+        <v>0.002578114562114119</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -6947,7 +6539,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>0</v>
+        <v>2.82701186880686E-05</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -6955,7 +6547,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>0.0828166130092398</v>
+        <v>0.0006415166855948171</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -6963,7 +6555,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>0.09646451516554563</v>
+        <v>3.060829478673605E-06</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -6971,7 +6563,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>0.0102540175676333</v>
+        <v>0.0004008433091650548</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -6979,7 +6571,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>0.003186954120949244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -6987,7 +6579,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>0.007663336913742089</v>
+        <v>1.659018834266846E-05</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -6995,7 +6587,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>0.002532438005267305</v>
+        <v>0.0006845360184819331</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -7003,7 +6595,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>0</v>
+        <v>6.052336717889871E-06</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -7011,7 +6603,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>0</v>
+        <v>7.999156892424253E-15</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -7019,7 +6611,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>1.44018870722358E-14</v>
+        <v>4.408079766199197E-05</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -7027,7 +6619,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>-0.0004798786479042183</v>
+        <v>1.384309070629962E-06</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -7035,7 +6627,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>-3.685279078430303E-15</v>
+        <v>1.583170000528851E-06</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -7043,7 +6635,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>-2.699053545766883E-15</v>
+        <v>0.000606790475405224</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -7051,7 +6643,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>-1.44018870722358E-14</v>
+        <v>2.238880658802147E-05</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -7059,7 +6651,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>-3.685276367924873E-15</v>
+        <v>2.790456229529533E-06</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -7067,7 +6659,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>3.685276367924873E-15</v>
+        <v>1.944712813608601E-05</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -7075,7 +6667,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>1.44018870722358E-14</v>
+        <v>2.09756497943491E-05</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -7083,7 +6675,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>0</v>
+        <v>6.201883122423475E-06</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -7091,7 +6683,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>0</v>
+        <v>9.188799259449115E-06</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -7099,7 +6691,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>3.355455575285854E-09</v>
+        <v>4.954944874541179E-15</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -7107,7 +6699,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>3.355455575285854E-09</v>
+        <v>-8.115730310009894E-15</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -7115,7 +6707,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>3.355455575285854E-09</v>
+        <v>-2.00048446774917E-15</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -7123,7 +6715,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>3.355455575285854E-09</v>
+        <v>9.188791514481671E-06</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -7131,7 +6723,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>0.009013486331934229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -7139,7 +6731,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>0.00221684699722434</v>
+        <v>0.001089230483263762</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -7147,7 +6739,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>0.00248431536689791</v>
+        <v>0.001849497745970194</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -7155,7 +6747,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>0.000622413965693337</v>
+        <v>0.0006340800398062973</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -7163,7 +6755,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>0</v>
+        <v>0.001627441825750559</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -7171,7 +6763,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>0</v>
+        <v>2.82701186880686E-05</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -7179,7 +6771,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>0</v>
+        <v>1.965101782134206E-05</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -7187,7 +6779,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>0.0003738336566895904</v>
+        <v>0.001089230483263762</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -7195,7 +6787,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>9.204142631790077E-06</v>
+        <v>0.001436263230401245</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -7203,7 +6795,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>0</v>
+        <v>0.000321243951584071</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -7211,7 +6803,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>0</v>
+        <v>0.001627441825750559</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -7219,7 +6811,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>0</v>
+        <v>2.82701186880686E-05</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -7227,7 +6819,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>0.001047659465729369</v>
+        <v>1.965101782134206E-05</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -7235,7 +6827,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>0.001169187531494971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -7243,7 +6835,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>0.002458869958060576</v>
+        <v>0.0004132345155689558</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -7251,7 +6843,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>2.544540883733418E-05</v>
+        <v>0.0003128360882222257</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -7259,7 +6851,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>0.0006121949810959984</v>
+        <v>0.0007389884271236777</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -7267,7 +6859,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>1.021898459733847E-05</v>
+        <v>0.0004855929439680646</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -7275,7 +6867,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>0.0003738336566895904</v>
+        <v>0.0002215226836463189</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -7283,7 +6875,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>9.204142631790077E-06</v>
+        <v>0.001196243746088024</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -7291,7 +6883,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>0</v>
+        <v>1.71915628634286E-05</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -7299,7 +6891,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>0.0006551574376072301</v>
+        <v>1.812088055030202E-05</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -7307,7 +6899,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>3.551016842883074E-06</v>
+        <v>3.856980662234489E-05</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -7315,7 +6907,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>3.685276367924873E-15</v>
+        <v>4.385791782994263E-05</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -7323,7 +6915,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>1.349526772883441E-15</v>
+        <v>8.745374013052139E-06</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -7331,7 +6923,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>4.292180735068016E-05</v>
+        <v>8.701305144166414E-05</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -7339,7 +6931,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>4.450582965949318E-07</v>
+        <v>3.1244314550699E-06</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -7347,7 +6939,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>-2.542272626139888E-14</v>
+        <v>0.0003116722495177396</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -7355,7 +6947,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>0</v>
+        <v>0.0002063674513767982</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -7363,7 +6955,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>8.956820135759996E-06</v>
+        <v>9.09758939247E-05</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -7371,7 +6963,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>0.0005085228434679358</v>
+        <v>0.0003441850282208706</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -7379,7 +6971,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>0</v>
+        <v>7.954124369570098E-06</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -7387,7 +6979,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>2.421230304761886E-06</v>
+        <v>1.530137271040043E-06</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -7395,7 +6987,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>2.156283352199669E-05</v>
+        <v>0.001016271856080527</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -7403,7 +6995,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>1.335173834815889E-06</v>
+        <v>0.0001629039674170164</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -7411,7 +7003,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>2.979224689841366E-06</v>
+        <v>4.145098675413615E-05</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -7419,7 +7011,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>1.652084933757816E-05</v>
+        <v>0.001698639901103672</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -7427,7 +7019,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>4.272792534871175E-06</v>
+        <v>3.1398539466782E-05</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -7435,7 +7027,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>1.025327293827274E-05</v>
+        <v>1.560392846963527E-05</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -7443,7 +7035,7 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>5.749191413432462E-06</v>
+        <v>0.001016271856080527</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -7451,7 +7043,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>8.958921035856057E-06</v>
+        <v>0.0001629039674170164</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -7459,7 +7051,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>7.270239824041006E-06</v>
+        <v>4.145098675413615E-05</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -7467,7 +7059,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>6.051760014520433E-05</v>
+        <v>0.001698639901103672</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -7475,7 +7067,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>0</v>
+        <v>3.1398539466782E-05</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -7483,7 +7075,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>0.001047659465728019</v>
+        <v>1.560392846963527E-05</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -7491,7 +7083,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>0.001760790713102667</v>
+        <v>0.001016271856080527</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -7499,7 +7091,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>0.0006081989059565204</v>
+        <v>0.0001629039674170164</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -7507,7 +7099,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>0</v>
+        <v>4.145098675413615E-05</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -7515,7 +7107,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>0.001543021188184562</v>
+        <v>0.001698639901103672</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -7523,7 +7115,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>2.544540883733418E-05</v>
+        <v>3.1398539466782E-05</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -7531,7 +7123,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>1.942312722544326E-05</v>
+        <v>1.560392846963527E-05</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -7539,7 +7131,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>0.001047659465728019</v>
+        <v>2.096706055304543E-15</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -7547,7 +7139,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>0.001367072287725887</v>
+        <v>-2.096706055304543E-15</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -7555,7 +7147,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>0.0003095324732452987</v>
+        <v>-1.583170000528851E-06</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -7563,7 +7155,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>0.001543021188184562</v>
+        <v>-8.13188548579876E-06</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -7571,7 +7163,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>2.544540883733418E-05</v>
+        <v>-1.564212187706832E-06</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -7579,7 +7171,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>1.942312722544326E-05</v>
+        <v>-1.530693499268624E-06</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -7587,7 +7179,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>7.200942858491544E-15</v>
+        <v>5.660299506230839E-05</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -7595,7 +7187,7 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>0</v>
+        <v>3.12842077871339E-06</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -7603,7 +7195,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>0.000393718425376779</v>
+        <v>3.061383478908802E-06</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -7611,7 +7203,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>0.0002986664327112425</v>
+        <v>-7.658105760180548E-06</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -7619,7 +7211,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>0</v>
+        <v>5.525302822087585E-06</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -7627,7 +7219,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>0</v>
+        <v>7.999156892424253E-15</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -7635,7 +7227,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>-7.200942858491544E-15</v>
+        <v>2.779198768046739E-06</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -7643,7 +7235,7 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>0.0006843859813711042</v>
+        <v>7.999156892424253E-15</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -7651,7 +7243,7 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>0.0004528886233348098</v>
+        <v>-1.181588151475871E-05</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -7659,7 +7251,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>0.0002369854726209664</v>
+        <v>1.181588151475871E-05</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -7667,7 +7259,7 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>0.001128861695758481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -7675,7 +7267,7 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>1.339711761020809E-05</v>
+        <v>-9.188799267448271E-06</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -7683,7 +7275,7 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>6.727780043044908E-06</v>
+        <v>7.999156892424253E-15</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -7691,7 +7283,7 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>7.200942858491544E-15</v>
+        <v>7.999156892424253E-15</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -7699,7 +7291,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>8.98026943005054E-05</v>
+        <v>-7.999156892424253E-15</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -7707,7 +7299,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>6.25429468640366E-05</v>
+        <v>7.999156892424253E-15</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -7715,7 +7307,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>-8.120695440963846E-13</v>
+        <v>-7.999156892424253E-15</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -7723,7 +7315,7 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>7.943648920848168E-05</v>
+        <v>-7.999156892424253E-15</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -7731,7 +7323,7 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>5.956931804929522E-06</v>
+        <v>1.583170000528851E-06</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -7739,7 +7331,7 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>0.0002734707900564097</v>
+        <v>-5.525302830086742E-06</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -7747,7 +7339,7 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>0.0001836804743457558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -7755,7 +7347,7 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>7.254700143640187E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -7763,7 +7355,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>0.000334723003217599</v>
+        <v>-8.220336963311799E-06</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -7771,7 +7363,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>6.091359422196568E-06</v>
+        <v>2.361101934518439E-05</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -7779,7 +7371,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>1.269534718239836E-05</v>
+        <v>4.77841451048083E-06</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -7787,7 +7379,7 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>0.0009949750028096251</v>
+        <v>8.255300986305076E-06</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -7795,7 +7387,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>0.0001598275025711421</v>
+        <v>-1.471410208953586E-05</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -7803,7 +7395,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>3.368601567220139E-05</v>
+        <v>-4.128744774719436E-06</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -7811,7 +7403,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>0.001594857072416013</v>
+        <v>9.335002647674565E-07</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -7819,7 +7411,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>2.693692536384416E-05</v>
+        <v>9.334905201774379E-07</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -7827,7 +7419,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>1.846070858632603E-05</v>
+        <v>1.181588151475871E-05</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -7835,7 +7427,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>0.0009949750028096251</v>
+        <v>-1.181588151475871E-05</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -7843,7 +7435,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>0.0001598275025711421</v>
+        <v>-9.188791514481671E-06</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -7851,7 +7443,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>3.368601567220139E-05</v>
+        <v>-6.201883122423475E-06</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -7859,7 +7451,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>0.001594857072416013</v>
+        <v>-1.583170000528851E-06</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -7867,7 +7459,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>2.693692536384416E-05</v>
+        <v>7.999156892424253E-15</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -7875,7 +7467,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>1.846070858632603E-05</v>
+        <v>5.525302830086742E-06</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -7883,7 +7475,7 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>0.0009949750028096251</v>
+        <v>-7.999156892424253E-15</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -7891,7 +7483,7 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>0.000159827502571142</v>
+        <v>7.999156892424253E-15</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -7899,7 +7491,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>3.368601567220139E-05</v>
+        <v>3.440340332492672E-05</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -7907,7 +7499,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>0.001594857072416013</v>
+        <v>1.564208591006557E-06</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -7915,7 +7507,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>2.693692536384416E-05</v>
+        <v>1.530689979640179E-06</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -7923,7 +7515,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>1.846070858632603E-05</v>
+        <v>-4.954944874541179E-15</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -7931,7 +7523,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>0</v>
+        <v>4.954944874541179E-15</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -7939,7 +7531,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>0</v>
+        <v>7.999156892424253E-15</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -7947,7 +7539,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>0</v>
+        <v>-7.999156892424253E-15</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -7955,7 +7547,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>-2.431388423929092E-14</v>
+        <v>-0.0005032164163008851</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -7963,7 +7555,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>2.431388423929092E-14</v>
+        <v>2.096706055304543E-15</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -7971,7 +7563,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>0</v>
+        <v>0.01035185426486331</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -7979,7 +7571,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>0</v>
+        <v>-9.188791516578377E-06</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -7987,7 +7579,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>-2.431388423929092E-14</v>
+        <v>0.003325353944171981</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -7995,7 +7587,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>2.431388423929092E-14</v>
+        <v>-0.0004549317994032966</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -8003,7 +7595,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>2.431388423929092E-14</v>
+        <v>-0.002399577215648856</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -8011,7 +7603,7 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>-2.431388423929092E-14</v>
+        <v>-0.02069265650736614</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -8019,7 +7611,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>2.431388423929092E-14</v>
+        <v>-0.0132130876181175</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -8027,7 +7619,7 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>-2.431388423929092E-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -8043,7 +7635,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>0</v>
+        <v>0.01069162243128698</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -8051,7 +7643,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>-2.431388423929092E-14</v>
+        <v>0.02022311598510982</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -8059,7 +7651,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>2.431388423929092E-14</v>
+        <v>-0.02022311598510982</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -8067,7 +7659,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>2.431388423929092E-14</v>
+        <v>0.005566791195732944</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -8075,7 +7667,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>-2.431388423929092E-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -8083,7 +7675,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>0</v>
+        <v>-0.004744954814997243</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -8091,7 +7683,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>-2.431388423929092E-14</v>
+        <v>-0.0006905883552078224</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -8099,7 +7691,7 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>2.431388423929092E-14</v>
+        <v>0.005248171231300224</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -8107,7 +7699,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>0</v>
+        <v>-0.005248171231300227</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -8115,7 +7707,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>-2.431388423929092E-14</v>
+        <v>-0.0005032164163029818</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -8123,7 +7715,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>2.431388423929092E-14</v>
+        <v>0.0005032164163029818</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -8131,7 +7723,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>0</v>
+        <v>0.004522100627509061</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -8139,7 +7731,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>0</v>
+        <v>0.0007260706037911718</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -8147,7 +7739,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>0</v>
+        <v>0.008898807537879213</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -8155,7 +7747,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>0</v>
+        <v>-0.008898807537879321</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -8163,7 +7755,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>0</v>
+        <v>8.115730310009894E-15</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -8171,7 +7763,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>0</v>
+        <v>2.00048446774917E-15</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -8179,7 +7771,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>5.094622133572616E-05</v>
+        <v>-4.954944874541179E-15</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -8187,7 +7779,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>1.491516526509981E-06</v>
+        <v>-9.188791514481671E-06</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -8195,7 +7787,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>1.458811665644646E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -8203,7 +7795,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>-4.272792534871175E-06</v>
+        <v>-0.0004132345155659109</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -8211,7 +7803,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>0</v>
+        <v>-0.0003128360882222257</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -8219,7 +7811,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>8.896628941631147E-07</v>
+        <v>-7.999156892424253E-15</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -8227,7 +7819,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>-7.27023989142848E-06</v>
+        <v>4.954944874541179E-15</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -8235,7 +7827,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>7.27023989142848E-06</v>
+        <v>-2.096706055304543E-15</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -8243,7 +7835,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>0</v>
+        <v>-2.096706055304543E-15</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -8251,7 +7843,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>-7.759092940897499E-06</v>
+        <v>0.0004008433091598934</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -8259,7 +7851,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>0</v>
+        <v>9.188791514481671E-06</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -8267,7 +7859,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>-2.421230304761886E-06</v>
+        <v>1.659018834266846E-05</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -8275,7 +7867,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>2.421230304761886E-06</v>
+        <v>0.0004549317994053933</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -8283,7 +7875,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>1.349526772883441E-15</v>
+        <v>0.0004174334975077236</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -8291,7 +7883,7 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>-2.979224689841366E-06</v>
+        <v>-8.115730310009894E-15</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -8299,7 +7891,7 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>4.103297874474749E-05</v>
+        <v>-2.00048446774917E-15</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -8307,7 +7899,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>4.470741231433479E-06</v>
+        <v>4.954944874541179E-15</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -8315,7 +7907,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>8.075698351966211E-06</v>
+        <v>9.188791514481671E-06</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -8323,7 +7915,7 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>8.901166267052171E-07</v>
+        <v>2.096706055304543E-15</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -8331,7 +7923,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>8.811217837937854E-07</v>
+        <v>-2.096706055304543E-15</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -8339,7 +7931,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>-8.761756396680629E-06</v>
+        <v>-0.0009626848846807188</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -8347,7 +7939,7 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>-1.491516541592113E-06</v>
+        <v>4.546510673262193E-05</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -8355,7 +7947,7 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>-8.958921035856056E-06</v>
+        <v>-4.546510673262193E-05</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -8363,7 +7955,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>-8.956820135759996E-06</v>
+        <v>-9.093021346524385E-05</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -8371,7 +7963,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>-8.761756396680662E-06</v>
+        <v>-0.0001813105813620737</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -8379,7 +7971,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>-5.749191413432462E-06</v>
+        <v>-0.002677660244239817</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -8387,7 +7979,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>-9.691470128802893E-06</v>
+        <v>2.096706055304543E-15</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -8395,7 +7987,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>-1.349526772883441E-15</v>
+        <v>-2.096706055304543E-15</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -8403,7 +7995,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>1.349526772883441E-15</v>
+        <v>2.096706055304543E-15</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -8411,7 +8003,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>-1.349526772883441E-15</v>
+        <v>8.115730310009894E-15</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -8419,7 +8011,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>-7.200942858491544E-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -8427,7 +8019,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>7.200942858491544E-15</v>
+        <v>2.00048446774917E-15</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -8435,7 +8027,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>-2.340077460802824E-14</v>
+        <v>-4.954944874541179E-15</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -8443,7 +8035,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>2.340077460802824E-14</v>
+        <v>-9.188791514481671E-06</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -8451,7 +8043,7 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>-2.431388423929092E-14</v>
+        <v>-3.440340332492672E-05</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -8459,7 +8051,7 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>2.340077460802824E-14</v>
+        <v>-1.564208591006557E-06</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -8467,7 +8059,7 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>0</v>
+        <v>-1.530689979640179E-06</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -8475,7 +8067,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>0</v>
+        <v>3.440340332492672E-05</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -8483,7 +8075,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>0</v>
+        <v>1.564208591006557E-06</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -8491,7 +8083,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>0</v>
+        <v>1.530689979640179E-06</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -8499,7 +8091,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>-3.685276367924873E-15</v>
+        <v>0.0004008433091650548</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -8507,7 +8099,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>7.200942858491544E-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -8515,7 +8107,7 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>2.431388423929092E-14</v>
+        <v>1.659018834266846E-05</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -8523,7 +8115,7 @@
         <v>663</v>
       </c>
       <c r="B665">
-        <v>0</v>
+        <v>0.0007389884271236777</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -8531,7 +8123,7 @@
         <v>664</v>
       </c>
       <c r="B666">
-        <v>-2.431388423929092E-14</v>
+        <v>0.0004855929439680646</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -8539,7 +8131,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>0</v>
+        <v>0.0002215226836463189</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -8547,7 +8139,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>3.253375886325149E-05</v>
+        <v>0.001196243746088024</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -8555,7 +8147,7 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>1.491516526509981E-06</v>
+        <v>1.71915628634286E-05</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -8563,7 +8155,7 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>1.458811665644646E-06</v>
+        <v>1.812088055030202E-05</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -8571,7 +8163,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>7.27023989142848E-06</v>
+        <v>0.0007389884271236777</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -8579,7 +8171,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>0</v>
+        <v>0.0004855929439680646</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -8587,7 +8179,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>0</v>
+        <v>0.0002215226836463189</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -8595,7 +8187,7 @@
         <v>672</v>
       </c>
       <c r="B674">
-        <v>0</v>
+        <v>0.001196243746088024</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -8603,7 +8195,7 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>0</v>
+        <v>1.71915628634286E-05</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -8611,7 +8203,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>7.200942858491544E-15</v>
+        <v>1.812088055030202E-05</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -8619,7 +8211,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>-7.200942858491544E-15</v>
+        <v>-2.096706055304543E-15</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -8627,7 +8219,7 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>2.431388423929092E-14</v>
+        <v>2.096706055304543E-15</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -8635,7 +8227,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>-2.340077460802824E-14</v>
+        <v>-4.408079766503618E-05</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -8643,7 +8235,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>0</v>
+        <v>-1.384309070629962E-06</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -8651,7 +8243,7 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>0</v>
+        <v>7.999156892424253E-15</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -8659,7 +8251,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>-1.349526772883441E-15</v>
+        <v>-4.954944874541179E-15</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -8667,7 +8259,7 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>-0.0004798786479042183</v>
+        <v>4.408079766199197E-05</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -8675,7 +8267,7 @@
         <v>682</v>
       </c>
       <c r="B684">
-        <v>-3.685279078430303E-15</v>
+        <v>1.384309070629962E-06</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -8683,7 +8275,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>-1.44018870722358E-14</v>
+        <v>3.04421337313579E-15</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -8691,7 +8283,7 @@
         <v>684</v>
       </c>
       <c r="B686">
-        <v>0.009880183910940019</v>
+        <v>-7.999156892424253E-15</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -8699,7 +8291,7 @@
         <v>685</v>
       </c>
       <c r="B687">
-        <v>-6.051760014520433E-05</v>
+        <v>4.954944874541179E-15</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -8707,7 +8299,7 @@
         <v>686</v>
       </c>
       <c r="B688">
-        <v>0.003177749978321139</v>
+        <v>3.856980662234489E-05</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -8715,7 +8307,7 @@
         <v>687</v>
       </c>
       <c r="B689">
-        <v>-0.0004257921262543719</v>
+        <v>4.385791782994263E-05</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -8723,7 +8315,7 @@
         <v>688</v>
       </c>
       <c r="B690">
-        <v>-0.002288631793485646</v>
+        <v>8.745374013052139E-06</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -8731,7 +8323,7 @@
         <v>689</v>
       </c>
       <c r="B691">
-        <v>-0.01973284138356634</v>
+        <v>8.701305144166414E-05</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -8739,7 +8331,7 @@
         <v>690</v>
       </c>
       <c r="B692">
-        <v>-0.01257162416284774</v>
+        <v>3.1244314550699E-06</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -8747,7 +8339,7 @@
         <v>691</v>
       </c>
       <c r="B693">
-        <v>0</v>
+        <v>3.856980662234489E-05</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -8755,7 +8347,7 @@
         <v>692</v>
       </c>
       <c r="B694">
-        <v>0</v>
+        <v>4.385791782994263E-05</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -8763,7 +8355,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>0.0101957749190094</v>
+        <v>8.745374013052139E-06</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -8771,7 +8363,7 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>0.01928522448958018</v>
+        <v>8.701305144166414E-05</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -8779,7 +8371,7 @@
         <v>695</v>
       </c>
       <c r="B697">
-        <v>-0.0101957749190094</v>
+        <v>3.1244314550699E-06</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -8787,7 +8379,7 @@
         <v>696</v>
       </c>
       <c r="B698">
-        <v>0.005323576329815589</v>
+        <v>0.0003116722495177396</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -8795,7 +8387,7 @@
         <v>697</v>
       </c>
       <c r="B699">
-        <v>0</v>
+        <v>0.0002063674513767982</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -8803,7 +8395,7 @@
         <v>698</v>
       </c>
       <c r="B700">
-        <v>-0.004524660161138344</v>
+        <v>9.09758939247E-05</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -8811,7 +8403,7 @@
         <v>699</v>
       </c>
       <c r="B701">
-        <v>-0.0006587084544537986</v>
+        <v>0.0003441850282208706</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -8819,7 +8411,7 @@
         <v>700</v>
       </c>
       <c r="B702">
-        <v>0.005004538809034547</v>
+        <v>7.954124369570098E-06</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -8827,7 +8419,7 @@
         <v>701</v>
       </c>
       <c r="B703">
-        <v>-0.005004538809034547</v>
+        <v>1.530137271040043E-06</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -8835,7 +8427,7 @@
         <v>702</v>
       </c>
       <c r="B704">
-        <v>-0.0004798786478962008</v>
+        <v>0.0003116722495177396</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -8843,7 +8435,7 @@
         <v>703</v>
       </c>
       <c r="B705">
-        <v>0.0004798786478962008</v>
+        <v>0.0002063674513767982</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -8851,7 +8443,7 @@
         <v>704</v>
       </c>
       <c r="B706">
-        <v>0.004312153950953727</v>
+        <v>9.09758939247E-05</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -8859,7 +8451,7 @@
         <v>705</v>
       </c>
       <c r="B707">
-        <v>0.0006923848580808213</v>
+        <v>0.0003441850282208706</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -8867,7 +8459,7 @@
         <v>706</v>
       </c>
       <c r="B708">
-        <v>0.008486229682257568</v>
+        <v>7.954124369570098E-06</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -8875,7 +8467,7 @@
         <v>707</v>
       </c>
       <c r="B709">
-        <v>-0.008486229682257568</v>
+        <v>1.530137271040043E-06</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -8883,7 +8475,7 @@
         <v>708</v>
       </c>
       <c r="B710">
-        <v>-2.431388423929092E-14</v>
+        <v>-7.999156892424253E-15</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -8891,7 +8483,7 @@
         <v>709</v>
       </c>
       <c r="B711">
-        <v>-6.051760014520433E-05</v>
+        <v>7.999156892424253E-15</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -8899,7 +8491,7 @@
         <v>710</v>
       </c>
       <c r="B712">
-        <v>0</v>
+        <v>-7.999156892424253E-15</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -8907,7 +8499,7 @@
         <v>711</v>
       </c>
       <c r="B713">
-        <v>0</v>
+        <v>7.999156892424253E-15</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -8915,7 +8507,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>0</v>
+        <v>0.0008869224418130879</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -8923,7 +8515,7 @@
         <v>713</v>
       </c>
       <c r="B715">
-        <v>2.340077460802824E-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -8931,7 +8523,7 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>-3.685276367924873E-15</v>
+        <v>0.0004132345155659109</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -8939,7 +8531,7 @@
         <v>715</v>
       </c>
       <c r="B717">
-        <v>7.200942858491544E-15</v>
+        <v>0.0003128360882222257</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -8947,7 +8539,7 @@
         <v>716</v>
       </c>
       <c r="B718">
-        <v>2.431388423929092E-14</v>
+        <v>7.999156892424253E-15</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -8955,7 +8547,7 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>-0.000393718425393892</v>
+        <v>-4.954944874541179E-15</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -8963,7 +8555,7 @@
         <v>718</v>
       </c>
       <c r="B720">
-        <v>-0.0002986664327112425</v>
+        <v>0.0008869224418130879</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -8971,7 +8563,7 @@
         <v>719</v>
       </c>
       <c r="B721">
-        <v>0</v>
+        <v>0.0005863517345235529</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -8979,7 +8571,7 @@
         <v>720</v>
       </c>
       <c r="B722">
-        <v>0</v>
+        <v>0.0005032164163029818</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -8987,7 +8579,7 @@
         <v>721</v>
       </c>
       <c r="B723">
-        <v>0</v>
+        <v>0.0007004449172264397</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -8995,7 +8587,7 @@
         <v>722</v>
       </c>
       <c r="B724">
-        <v>-2.431388423929092E-14</v>
+        <v>0.0005126894678084231</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -9003,7 +8595,7 @@
         <v>723</v>
       </c>
       <c r="B725">
-        <v>3.685276367924873E-15</v>
+        <v>0.0009989514154280141</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -9011,7 +8603,7 @@
         <v>724</v>
       </c>
       <c r="B726">
-        <v>3.151482845303518E-14</v>
+        <v>0.0001571920526441603</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -9019,7 +8611,7 @@
         <v>725</v>
       </c>
       <c r="B727">
-        <v>1.44018870722358E-14</v>
+        <v>4.145098675413615E-05</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -9027,7 +8619,7 @@
         <v>726</v>
       </c>
       <c r="B728">
-        <v>0.0003738336566932757</v>
+        <v>0.001715960341764185</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -9035,7 +8627,7 @@
         <v>727</v>
       </c>
       <c r="B729">
-        <v>6.051760014520433E-05</v>
+        <v>3.711045423993358E-05</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -9043,7 +8635,7 @@
         <v>728</v>
       </c>
       <c r="B730">
-        <v>9.204142628104792E-06</v>
+        <v>1.560392846963526E-05</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -9051,7 +8643,7 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>0.0004257921262543719</v>
+        <v>-7.999156892424253E-15</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -9059,7 +8651,7 @@
         <v>730</v>
       </c>
       <c r="B732">
-        <v>0.0003830377993213804</v>
+        <v>0.002221326970110232</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -9067,7 +8659,7 @@
         <v>731</v>
       </c>
       <c r="B733">
-        <v>2.431388423929092E-14</v>
+        <v>1.760551830121943E-06</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -9075,7 +8667,7 @@
         <v>732</v>
       </c>
       <c r="B734">
-        <v>6.051760014520433E-05</v>
+        <v>0.0005697859249799227</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -9083,7 +8675,7 @@
         <v>733</v>
       </c>
       <c r="B735">
-        <v>0</v>
+        <v>0.0002838400541794924</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -9091,7 +8683,7 @@
         <v>734</v>
       </c>
       <c r="B736">
-        <v>0</v>
+        <v>0.0005969918460678999</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -9099,7 +8691,7 @@
         <v>735</v>
       </c>
       <c r="B737">
-        <v>-2.431388423929092E-14</v>
+        <v>4.954944874541179E-15</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -9107,7 +8699,7 @@
         <v>736</v>
       </c>
       <c r="B738">
-        <v>3.685276367924873E-15</v>
+        <v>-8.115730310009894E-15</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -9115,7 +8707,7 @@
         <v>737</v>
       </c>
       <c r="B739">
-        <v>-7.200942858491544E-15</v>
+        <v>-2.00048446774917E-15</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -9123,7 +8715,7 @@
         <v>738</v>
       </c>
       <c r="B740">
-        <v>3.515666490566671E-15</v>
+        <v>0.000706228009567125</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -9131,7 +8723,7 @@
         <v>739</v>
       </c>
       <c r="B741">
-        <v>-3.060171744912604E-14</v>
+        <v>4.64618956099079E-06</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -9139,7 +8731,7 @@
         <v>740</v>
       </c>
       <c r="B742">
-        <v>3.151482845303518E-14</v>
+        <v>2.238880658802147E-05</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -9147,7 +8739,7 @@
         <v>741</v>
       </c>
       <c r="B743">
-        <v>-0.0008832079756607613</v>
+        <v>2.790456229529533E-06</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -9155,7 +8747,7 @@
         <v>742</v>
       </c>
       <c r="B744">
-        <v>4.336686564862461E-05</v>
+        <v>0.000590771466715164</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -9163,7 +8755,7 @@
         <v>743</v>
       </c>
       <c r="B745">
-        <v>-4.336686564862461E-05</v>
+        <v>-8.264697114654343E-06</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -9171,7 +8763,7 @@
         <v>744</v>
       </c>
       <c r="B746">
-        <v>-8.673373129724924E-05</v>
+        <v>8.615471031899707E-08</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -9179,7 +8771,7 @@
         <v>745</v>
       </c>
       <c r="B747">
-        <v>-0.0002377390613658836</v>
+        <v>0.08615471053651674</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -9187,7 +8779,7 @@
         <v>746</v>
       </c>
       <c r="B748">
-        <v>-0.002523246670745816</v>
+        <v>0.700000000000001</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -9195,7 +8787,7 @@
         <v>747</v>
       </c>
       <c r="B749">
-        <v>0</v>
+        <v>0.08615471053651674</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -9203,7 +8795,7 @@
         <v>748</v>
       </c>
       <c r="B750">
-        <v>0</v>
+        <v>0.08615471053651674</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -9211,7 +8803,7 @@
         <v>749</v>
       </c>
       <c r="B751">
-        <v>-2.431388423929092E-14</v>
+        <v>0.08615471053651674</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -9219,7 +8811,7 @@
         <v>750</v>
       </c>
       <c r="B752">
-        <v>2.340077460802824E-14</v>
+        <v>0.08615471053651674</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -9227,7 +8819,7 @@
         <v>751</v>
       </c>
       <c r="B753">
-        <v>-1.44018870722358E-14</v>
+        <v>0.08615471053651674</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -9235,7 +8827,7 @@
         <v>752</v>
       </c>
       <c r="B754">
-        <v>-6.051760014520433E-05</v>
+        <v>0.08615471053651674</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -9243,7 +8835,7 @@
         <v>753</v>
       </c>
       <c r="B755">
-        <v>0</v>
+        <v>0.009531493553822839</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -9251,7 +8843,7 @@
         <v>754</v>
       </c>
       <c r="B756">
-        <v>0</v>
+        <v>-8.615470836006567E-07</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -9259,7 +8851,7 @@
         <v>755</v>
       </c>
       <c r="B757">
-        <v>0</v>
+        <v>-0.01924244661901659</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -9267,7 +8859,7 @@
         <v>756</v>
       </c>
       <c r="B758">
-        <v>-3.685276367924873E-15</v>
+        <v>-8.264697114654343E-06</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -9275,7 +8867,7 @@
         <v>757</v>
       </c>
       <c r="B759">
-        <v>7.200942858491544E-15</v>
+        <v>0.1943617724168905</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -9283,7 +8875,7 @@
         <v>758</v>
       </c>
       <c r="B760">
-        <v>-3.253375886325149E-05</v>
+        <v>0.2848685578621122</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -9291,7 +8883,7 @@
         <v>759</v>
       </c>
       <c r="B761">
-        <v>-1.491516526509981E-06</v>
+        <v>-1.020027080953454</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -9299,7 +8891,7 @@
         <v>760</v>
       </c>
       <c r="B762">
-        <v>-1.458811665644646E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -9307,7 +8899,7 @@
         <v>761</v>
       </c>
       <c r="B763">
-        <v>-7.27023989142848E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -9315,7 +8907,7 @@
         <v>762</v>
       </c>
       <c r="B764">
-        <v>3.253375886325149E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -9323,7 +8915,7 @@
         <v>763</v>
       </c>
       <c r="B765">
-        <v>1.491516526509981E-06</v>
+        <v>-0.2015597812338607</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -9331,7 +8923,7 @@
         <v>764</v>
       </c>
       <c r="B766">
-        <v>1.458811665644646E-06</v>
+        <v>0.001382244214473204</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -9339,7 +8931,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>7.27023989142848E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -9347,7 +8939,7 @@
         <v>766</v>
       </c>
       <c r="B768">
-        <v>0.0003738336566895904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -9355,7 +8947,7 @@
         <v>767</v>
       </c>
       <c r="B769">
-        <v>9.204142631790077E-06</v>
+        <v>0.2015597812338607</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -9363,7 +8955,7 @@
         <v>768</v>
       </c>
       <c r="B770">
-        <v>0.0006843859813711042</v>
+        <v>-0.01907032861089075</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -9371,7 +8963,7 @@
         <v>769</v>
       </c>
       <c r="B771">
-        <v>0.0004528886233348098</v>
+        <v>0.01907032861089075</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -9379,7 +8971,7 @@
         <v>770</v>
       </c>
       <c r="B772">
-        <v>0.0002369854726209664</v>
+        <v>0.01907032861089075</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -9387,7 +8979,7 @@
         <v>771</v>
       </c>
       <c r="B773">
-        <v>0.001128861695758481</v>
+        <v>0.01907032861089075</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -9395,7 +8987,7 @@
         <v>772</v>
       </c>
       <c r="B774">
-        <v>1.339711761020809E-05</v>
+        <v>1.869557162010553E-05</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -9403,7 +8995,7 @@
         <v>773</v>
       </c>
       <c r="B775">
-        <v>6.727780043044908E-06</v>
+        <v>0.0001111395803664937</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -9411,7 +9003,7 @@
         <v>774</v>
       </c>
       <c r="B776">
-        <v>7.200942858491544E-15</v>
+        <v>5.677595528537246E-05</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -9419,7 +9011,7 @@
         <v>775</v>
       </c>
       <c r="B777">
-        <v>0.0006843859813711042</v>
+        <v>0.0002352023654198532</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -9427,7 +9019,7 @@
         <v>776</v>
       </c>
       <c r="B778">
-        <v>0.0004528886233348098</v>
+        <v>6.444372273093034E-05</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -9435,7 +9027,7 @@
         <v>777</v>
       </c>
       <c r="B779">
-        <v>0.0002369854726209664</v>
+        <v>0.0001070509315137948</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -9443,7 +9035,7 @@
         <v>778</v>
       </c>
       <c r="B780">
-        <v>0.001128861695758481</v>
+        <v>-0.0001111395803664937</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -9451,7 +9043,7 @@
         <v>779</v>
       </c>
       <c r="B781">
-        <v>1.339711761020809E-05</v>
+        <v>-5.677595528537246E-05</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -9459,7 +9051,7 @@
         <v>780</v>
       </c>
       <c r="B782">
-        <v>6.727780043044908E-06</v>
+        <v>-0.0002352023654198532</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -9467,7 +9059,7 @@
         <v>781</v>
       </c>
       <c r="B783">
-        <v>7.200942858491544E-15</v>
+        <v>-6.444372273093034E-05</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -9475,7 +9067,7 @@
         <v>782</v>
       </c>
       <c r="B784">
-        <v>0</v>
+        <v>-0.0001070509315137948</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -9483,7 +9075,7 @@
         <v>783</v>
       </c>
       <c r="B785">
-        <v>0</v>
+        <v>0.08615471053651674</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -9491,7 +9083,7 @@
         <v>784</v>
       </c>
       <c r="B786">
-        <v>0</v>
+        <v>0.08615471053651674</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -9499,7 +9091,7 @@
         <v>785</v>
       </c>
       <c r="B787">
-        <v>0</v>
+        <v>-1.869557162010553E-05</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -9507,7 +9099,7 @@
         <v>786</v>
       </c>
       <c r="B788">
-        <v>0</v>
+        <v>-8.264697114654343E-06</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -9515,7 +9107,7 @@
         <v>787</v>
       </c>
       <c r="B789">
-        <v>0</v>
+        <v>-8.086618163288817E-10</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -9523,7 +9115,7 @@
         <v>788</v>
       </c>
       <c r="B790">
-        <v>-2.566341101217436E-14</v>
+        <v>-8.086618163288817E-10</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -9531,7 +9123,7 @@
         <v>789</v>
       </c>
       <c r="B791">
-        <v>-4.29218073578811E-05</v>
+        <v>-8.086618163288817E-10</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -9539,7 +9131,7 @@
         <v>790</v>
       </c>
       <c r="B792">
-        <v>-4.450582965949318E-07</v>
+        <v>-8.086618163288817E-10</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -9547,7 +9139,7 @@
         <v>791</v>
       </c>
       <c r="B793">
-        <v>0</v>
+        <v>-3.941291737419312E-16</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -9555,7 +9147,7 @@
         <v>792</v>
       </c>
       <c r="B794">
-        <v>2.340077460802824E-14</v>
+        <v>3.941291737419312E-16</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -9563,7 +9155,7 @@
         <v>793</v>
       </c>
       <c r="B795">
-        <v>0</v>
+        <v>-3.941291737419312E-16</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -9571,7 +9163,7 @@
         <v>794</v>
       </c>
       <c r="B796">
-        <v>7.200942858491544E-15</v>
+        <v>3.941291737419312E-16</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -9579,7 +9171,7 @@
         <v>795</v>
       </c>
       <c r="B797">
-        <v>1.349526772883441E-15</v>
+        <v>-3.941291737419312E-16</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -9587,7 +9179,7 @@
         <v>796</v>
       </c>
       <c r="B798">
-        <v>4.292180735068016E-05</v>
+        <v>-1.865868570760654E-15</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -9595,7 +9187,7 @@
         <v>797</v>
       </c>
       <c r="B799">
-        <v>4.450582965949318E-07</v>
+        <v>1.865868570760654E-15</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -9603,7 +9195,7 @@
         <v>798</v>
       </c>
       <c r="B800">
-        <v>2.431388423929092E-14</v>
+        <v>-1.865868570760654E-15</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -9611,7 +9203,7 @@
         <v>799</v>
       </c>
       <c r="B801">
-        <v>7.200942858491544E-15</v>
+        <v>1.865868570760654E-15</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -9619,7 +9211,7 @@
         <v>800</v>
       </c>
       <c r="B802">
-        <v>0</v>
+        <v>-1.865868570760654E-15</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -9627,7 +9219,7 @@
         <v>801</v>
       </c>
       <c r="B803">
-        <v>-2.340077460802824E-14</v>
+        <v>-8.086618163288817E-10</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -9635,7 +9227,7 @@
         <v>802</v>
       </c>
       <c r="B804">
-        <v>0</v>
+        <v>-8.264697114654343E-06</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -9643,7 +9235,7 @@
         <v>803</v>
       </c>
       <c r="B805">
-        <v>-7.200942858491544E-15</v>
+        <v>-0.000723229877400392</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -9651,7 +9243,7 @@
         <v>804</v>
       </c>
       <c r="B806">
-        <v>8.98026943005054E-05</v>
+        <v>-0.000723229877400392</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -9659,7 +9251,7 @@
         <v>805</v>
       </c>
       <c r="B807">
-        <v>6.25429468640366E-05</v>
+        <v>1.020027080953454</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -9667,7 +9259,7 @@
         <v>806</v>
       </c>
       <c r="B808">
-        <v>-8.120695440963846E-13</v>
+        <v>1.020027080953454</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -9675,1095 +9267,7 @@
         <v>807</v>
       </c>
       <c r="B809">
-        <v>7.943648920848168E-05</v>
-      </c>
-    </row>
-    <row r="810" spans="1:2">
-      <c r="A810" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="B810">
-        <v>5.956931804929522E-06</v>
-      </c>
-    </row>
-    <row r="811" spans="1:2">
-      <c r="A811" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="B811">
-        <v>8.98026943005054E-05</v>
-      </c>
-    </row>
-    <row r="812" spans="1:2">
-      <c r="A812" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="B812">
-        <v>6.25429468640366E-05</v>
-      </c>
-    </row>
-    <row r="813" spans="1:2">
-      <c r="A813" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="B813">
-        <v>-8.120695440963846E-13</v>
-      </c>
-    </row>
-    <row r="814" spans="1:2">
-      <c r="A814" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="B814">
-        <v>7.943648920848168E-05</v>
-      </c>
-    </row>
-    <row r="815" spans="1:2">
-      <c r="A815" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="B815">
-        <v>5.956931804929522E-06</v>
-      </c>
-    </row>
-    <row r="816" spans="1:2">
-      <c r="A816" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="B816">
-        <v>0.0002734707900564097</v>
-      </c>
-    </row>
-    <row r="817" spans="1:2">
-      <c r="A817" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="B817">
-        <v>0.0001836804743457558</v>
-      </c>
-    </row>
-    <row r="818" spans="1:2">
-      <c r="A818" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="B818">
-        <v>7.254700143640187E-05</v>
-      </c>
-    </row>
-    <row r="819" spans="1:2">
-      <c r="A819" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="B819">
-        <v>0.000334723003217599</v>
-      </c>
-    </row>
-    <row r="820" spans="1:2">
-      <c r="A820" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="B820">
-        <v>6.091359422196568E-06</v>
-      </c>
-    </row>
-    <row r="821" spans="1:2">
-      <c r="A821" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="B821">
-        <v>1.269534718239836E-05</v>
-      </c>
-    </row>
-    <row r="822" spans="1:2">
-      <c r="A822" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="B822">
-        <v>0.0002734707900564097</v>
-      </c>
-    </row>
-    <row r="823" spans="1:2">
-      <c r="A823" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="B823">
-        <v>0.0001836804743457558</v>
-      </c>
-    </row>
-    <row r="824" spans="1:2">
-      <c r="A824" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="B824">
-        <v>7.254700143640187E-05</v>
-      </c>
-    </row>
-    <row r="825" spans="1:2">
-      <c r="A825" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="B825">
-        <v>0.000334723003217599</v>
-      </c>
-    </row>
-    <row r="826" spans="1:2">
-      <c r="A826" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="B826">
-        <v>6.091359422196568E-06</v>
-      </c>
-    </row>
-    <row r="827" spans="1:2">
-      <c r="A827" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="B827">
-        <v>1.269534718239836E-05</v>
-      </c>
-    </row>
-    <row r="828" spans="1:2">
-      <c r="A828" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="B828">
-        <v>-2.340077460802824E-14</v>
-      </c>
-    </row>
-    <row r="829" spans="1:2">
-      <c r="A829" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="B829">
-        <v>2.340077460802824E-14</v>
-      </c>
-    </row>
-    <row r="830" spans="1:2">
-      <c r="A830" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="B830">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="831" spans="1:2">
-      <c r="A831" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="B831">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="832" spans="1:2">
-      <c r="A832" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="B832">
-        <v>-7.200942858491544E-15</v>
-      </c>
-    </row>
-    <row r="833" spans="1:2">
-      <c r="A833" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="B833">
-        <v>7.200942858491544E-15</v>
-      </c>
-    </row>
-    <row r="834" spans="1:2">
-      <c r="A834" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="B834">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="835" spans="1:2">
-      <c r="A835" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="B835">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="836" spans="1:2">
-      <c r="A836" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="B836">
-        <v>0.0008457894623066966</v>
-      </c>
-    </row>
-    <row r="837" spans="1:2">
-      <c r="A837" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="B837">
-        <v>-2.431388423929092E-14</v>
-      </c>
-    </row>
-    <row r="838" spans="1:2">
-      <c r="A838" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="B838">
-        <v>0.000393718425393892</v>
-      </c>
-    </row>
-    <row r="839" spans="1:2">
-      <c r="A839" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="B839">
-        <v>0.0002986664327112425</v>
-      </c>
-    </row>
-    <row r="840" spans="1:2">
-      <c r="A840" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="B840">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="841" spans="1:2">
-      <c r="A841" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="B841">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="842" spans="1:2">
-      <c r="A842" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="B842">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="843" spans="1:2">
-      <c r="A843" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="B843">
-        <v>0.0008457894623066966</v>
-      </c>
-    </row>
-    <row r="844" spans="1:2">
-      <c r="A844" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="B844">
-        <v>0.0005591583828361269</v>
-      </c>
-    </row>
-    <row r="845" spans="1:2">
-      <c r="A845" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="B845">
-        <v>1.349526772883441E-15</v>
-      </c>
-    </row>
-    <row r="846" spans="1:2">
-      <c r="A846" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="B846">
-        <v>0.0004798786478979305</v>
-      </c>
-    </row>
-    <row r="847" spans="1:2">
-      <c r="A847" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="B847">
-        <v>0.0006679602431812852</v>
-      </c>
-    </row>
-    <row r="848" spans="1:2">
-      <c r="A848" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="B848">
-        <v>0.0004889123658000489</v>
-      </c>
-    </row>
-    <row r="849" spans="1:2">
-      <c r="A849" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="B849">
-        <v>0.0009530519074381722</v>
-      </c>
-    </row>
-    <row r="850" spans="1:2">
-      <c r="A850" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="B850">
-        <v>0.0001553567613397679</v>
-      </c>
-    </row>
-    <row r="851" spans="1:2">
-      <c r="A851" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="B851">
-        <v>3.368601567220139E-05</v>
-      </c>
-    </row>
-    <row r="852" spans="1:2">
-      <c r="A852" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="B852">
-        <v>0.001636780167786116</v>
-      </c>
-    </row>
-    <row r="853" spans="1:2">
-      <c r="A853" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="B853">
-        <v>3.140766659527764E-05</v>
-      </c>
-    </row>
-    <row r="854" spans="1:2">
-      <c r="A854" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="B854">
-        <v>1.846070858632603E-05</v>
-      </c>
-    </row>
-    <row r="855" spans="1:2">
-      <c r="A855" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="B855">
-        <v>1.349526772883441E-15</v>
-      </c>
-    </row>
-    <row r="856" spans="1:2">
-      <c r="A856" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="B856">
-        <v>0.002118308044857023</v>
-      </c>
-    </row>
-    <row r="857" spans="1:2">
-      <c r="A857" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="B857">
-        <v>8.485786869426636E-07</v>
-      </c>
-    </row>
-    <row r="858" spans="1:2">
-      <c r="A858" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="B858">
-        <v>0.000537793025446949</v>
-      </c>
-    </row>
-    <row r="859" spans="1:2">
-      <c r="A859" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="B859">
-        <v>0.0002768088762121564</v>
-      </c>
-    </row>
-    <row r="860" spans="1:2">
-      <c r="A860" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="B860">
-        <v>7.200942858491544E-15</v>
-      </c>
-    </row>
-    <row r="861" spans="1:2">
-      <c r="A861" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="B861">
-        <v>0.0005693050357989044</v>
-      </c>
-    </row>
-    <row r="862" spans="1:2">
-      <c r="A862" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="B862">
-        <v>-2.542272626139888E-14</v>
-      </c>
-    </row>
-    <row r="863" spans="1:2">
-      <c r="A863" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="B863">
-        <v>3.685276367924873E-15</v>
-      </c>
-    </row>
-    <row r="864" spans="1:2">
-      <c r="A864" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="B864">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="865" spans="1:2">
-      <c r="A865" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="B865">
-        <v>0.0006765164114687389</v>
-      </c>
-    </row>
-    <row r="866" spans="1:2">
-      <c r="A866" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="B866">
-        <v>2.660901304662117E-06</v>
-      </c>
-    </row>
-    <row r="867" spans="1:2">
-      <c r="A867" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="B867">
-        <v>2.156283352199669E-05</v>
-      </c>
-    </row>
-    <row r="868" spans="1:2">
-      <c r="A868" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="B868">
-        <v>1.335173834815889E-06</v>
-      </c>
-    </row>
-    <row r="869" spans="1:2">
-      <c r="A869" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="B869">
-        <v>1.349526772883441E-15</v>
-      </c>
-    </row>
-    <row r="870" spans="1:2">
-      <c r="A870" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="B870">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="871" spans="1:2">
-      <c r="A871" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="B871">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="872" spans="1:2">
-      <c r="A872" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="B872">
-        <v>-7.200942858491544E-15</v>
-      </c>
-    </row>
-    <row r="873" spans="1:2">
-      <c r="A873" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="B873">
-        <v>0.0005633731402237522</v>
-      </c>
-    </row>
-    <row r="874" spans="1:2">
-      <c r="A874" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="B874">
-        <v>-7.885814384568655E-06</v>
-      </c>
-    </row>
-    <row r="875" spans="1:2">
-      <c r="A875" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="B875">
-        <v>8.215909608390569E-08</v>
-      </c>
-    </row>
-    <row r="876" spans="1:2">
-      <c r="A876" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="B876">
-        <v>0.08215909629133747</v>
-      </c>
-    </row>
-    <row r="877" spans="1:2">
-      <c r="A877" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="B877">
-        <v>0.700000000000001</v>
-      </c>
-    </row>
-    <row r="878" spans="1:2">
-      <c r="A878" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="B878">
-        <v>0.08215909629133747</v>
-      </c>
-    </row>
-    <row r="879" spans="1:2">
-      <c r="A879" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="B879">
-        <v>0.08215909629133747</v>
-      </c>
-    </row>
-    <row r="880" spans="1:2">
-      <c r="A880" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="B880">
-        <v>0.08215909629133747</v>
-      </c>
-    </row>
-    <row r="881" spans="1:2">
-      <c r="A881" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="B881">
-        <v>0.08215909629133747</v>
-      </c>
-    </row>
-    <row r="882" spans="1:2">
-      <c r="A882" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="B882">
-        <v>0.08215909629133747</v>
-      </c>
-    </row>
-    <row r="883" spans="1:2">
-      <c r="A883" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="B883">
-        <v>0.08215909629133747</v>
-      </c>
-    </row>
-    <row r="884" spans="1:2">
-      <c r="A884" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="B884">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="885" spans="1:2">
-      <c r="A885" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="B885">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="886" spans="1:2">
-      <c r="A886" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="B886">
-        <v>2.431388423929092E-14</v>
-      </c>
-    </row>
-    <row r="887" spans="1:2">
-      <c r="A887" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="B887">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="888" spans="1:2">
-      <c r="A888" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="B888">
-        <v>-2.340077460802824E-14</v>
-      </c>
-    </row>
-    <row r="889" spans="1:2">
-      <c r="A889" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="B889">
-        <v>2.431388423929092E-14</v>
-      </c>
-    </row>
-    <row r="890" spans="1:2">
-      <c r="A890" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="B890">
-        <v>-2.431388423929092E-14</v>
-      </c>
-    </row>
-    <row r="891" spans="1:2">
-      <c r="A891" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="B891">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="892" spans="1:2">
-      <c r="A892" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="B892">
-        <v>-2.431388423929092E-14</v>
-      </c>
-    </row>
-    <row r="893" spans="1:2">
-      <c r="A893" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="B893">
-        <v>2.431388423929092E-14</v>
-      </c>
-    </row>
-    <row r="894" spans="1:2">
-      <c r="A894" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="B894">
-        <v>0.009089449570570788</v>
-      </c>
-    </row>
-    <row r="895" spans="1:2">
-      <c r="A895" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="B895">
-        <v>-8.215909421582411E-07</v>
-      </c>
-    </row>
-    <row r="896" spans="1:2">
-      <c r="A896" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="B896">
-        <v>-0.01503903675063035</v>
-      </c>
-    </row>
-    <row r="897" spans="1:2">
-      <c r="A897" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="B897">
-        <v>-7.885814384568655E-06</v>
-      </c>
-    </row>
-    <row r="898" spans="1:2">
-      <c r="A898" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="B898">
-        <v>0.1907276289868335</v>
-      </c>
-    </row>
-    <row r="899" spans="1:2">
-      <c r="A899" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="B899">
-        <v>0.2790671001137809</v>
-      </c>
-    </row>
-    <row r="900" spans="1:2">
-      <c r="A900" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="B900">
-        <v>-0.9013458634988855</v>
-      </c>
-    </row>
-    <row r="901" spans="1:2">
-      <c r="A901" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="B901">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="902" spans="1:2">
-      <c r="A902" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="B902">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="903" spans="1:2">
-      <c r="A903" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="B903">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="904" spans="1:2">
-      <c r="A904" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="B904">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="905" spans="1:2">
-      <c r="A905" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="B905">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="906" spans="1:2">
-      <c r="A906" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="B906">
-        <v>-0.2467487331938764</v>
-      </c>
-    </row>
-    <row r="907" spans="1:2">
-      <c r="A907" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="B907">
-        <v>0.001318104052309214</v>
-      </c>
-    </row>
-    <row r="908" spans="1:2">
-      <c r="A908" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="B908">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="909" spans="1:2">
-      <c r="A909" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="B909">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="910" spans="1:2">
-      <c r="A910" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="B910">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="911" spans="1:2">
-      <c r="A911" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="B911">
-        <v>0.2467487331938764</v>
-      </c>
-    </row>
-    <row r="912" spans="1:2">
-      <c r="A912" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="B912">
-        <v>-0.01818590016602204</v>
-      </c>
-    </row>
-    <row r="913" spans="1:2">
-      <c r="A913" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="B913">
-        <v>0.01818590016602204</v>
-      </c>
-    </row>
-    <row r="914" spans="1:2">
-      <c r="A914" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="B914">
-        <v>0.01818590016602204</v>
-      </c>
-    </row>
-    <row r="915" spans="1:2">
-      <c r="A915" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="B915">
-        <v>0.01818590016602204</v>
-      </c>
-    </row>
-    <row r="916" spans="1:2">
-      <c r="A916" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="B916">
-        <v>1.78285233551659E-05</v>
-      </c>
-    </row>
-    <row r="917" spans="1:2">
-      <c r="A917" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="B917">
-        <v>0.0001059852378151669</v>
-      </c>
-    </row>
-    <row r="918" spans="1:2">
-      <c r="A918" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="B918">
-        <v>5.414284544948317E-05</v>
-      </c>
-    </row>
-    <row r="919" spans="1:2">
-      <c r="A919" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="B919">
-        <v>0.0002242943382682432</v>
-      </c>
-    </row>
-    <row r="920" spans="1:2">
-      <c r="A920" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="B920">
-        <v>6.145500331033695E-05</v>
-      </c>
-    </row>
-    <row r="921" spans="1:2">
-      <c r="A921" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="B921">
-        <v>0.0001020862090482143</v>
-      </c>
-    </row>
-    <row r="922" spans="1:2">
-      <c r="A922" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="B922">
-        <v>-0.0001059852378151669</v>
-      </c>
-    </row>
-    <row r="923" spans="1:2">
-      <c r="A923" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="B923">
-        <v>-5.414284544948317E-05</v>
-      </c>
-    </row>
-    <row r="924" spans="1:2">
-      <c r="A924" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="B924">
-        <v>-0.0002242943382682432</v>
-      </c>
-    </row>
-    <row r="925" spans="1:2">
-      <c r="A925" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="B925">
-        <v>-6.145500331033695E-05</v>
-      </c>
-    </row>
-    <row r="926" spans="1:2">
-      <c r="A926" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="B926">
-        <v>-0.0001020862090482143</v>
-      </c>
-    </row>
-    <row r="927" spans="1:2">
-      <c r="A927" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="B927">
-        <v>0.08215909629133747</v>
-      </c>
-    </row>
-    <row r="928" spans="1:2">
-      <c r="A928" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="B928">
-        <v>0.08215909629133747</v>
-      </c>
-    </row>
-    <row r="929" spans="1:2">
-      <c r="A929" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="B929">
-        <v>-1.78285233551659E-05</v>
-      </c>
-    </row>
-    <row r="930" spans="1:2">
-      <c r="A930" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="B930">
-        <v>-7.885814384568655E-06</v>
-      </c>
-    </row>
-    <row r="931" spans="1:2">
-      <c r="A931" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="B931">
-        <v>-3.355455575285854E-09</v>
-      </c>
-    </row>
-    <row r="932" spans="1:2">
-      <c r="A932" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="B932">
-        <v>-3.355455575285854E-09</v>
-      </c>
-    </row>
-    <row r="933" spans="1:2">
-      <c r="A933" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="B933">
-        <v>-3.355455575285854E-09</v>
-      </c>
-    </row>
-    <row r="934" spans="1:2">
-      <c r="A934" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="B934">
-        <v>-3.355455575285854E-09</v>
-      </c>
-    </row>
-    <row r="935" spans="1:2">
-      <c r="A935" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="B935">
-        <v>-3.355455575285854E-09</v>
-      </c>
-    </row>
-    <row r="936" spans="1:2">
-      <c r="A936" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="B936">
-        <v>-7.885814384568655E-06</v>
-      </c>
-    </row>
-    <row r="937" spans="1:2">
-      <c r="A937" s="1" t="s">
-        <v>935</v>
-      </c>
-      <c r="B937">
-        <v>-0.0006897110322597332</v>
-      </c>
-    </row>
-    <row r="938" spans="1:2">
-      <c r="A938" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="B938">
-        <v>-0.0006897110322597332</v>
-      </c>
-    </row>
-    <row r="939" spans="1:2">
-      <c r="A939" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="B939">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="940" spans="1:2">
-      <c r="A940" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="B940">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="941" spans="1:2">
-      <c r="A941" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="B941">
-        <v>0.9013458634988855</v>
-      </c>
-    </row>
-    <row r="942" spans="1:2">
-      <c r="A942" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="B942">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="943" spans="1:2">
-      <c r="A943" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="B943">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="944" spans="1:2">
-      <c r="A944" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="B944">
-        <v>0.9013458634988855</v>
-      </c>
-    </row>
-    <row r="945" spans="1:2">
-      <c r="A945" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="B945">
-        <v>-1.561022879768384E-05</v>
+        <v>-1.636939552869705E-05</v>
       </c>
     </row>
   </sheetData>
